--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,87 +1943,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>147</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7</v>
+        <v>17.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.96</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6</v>
+        <v>15.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2000000000000001</v>
+        <v>131.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>162.3</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.8</v>
+        <v>-26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6</v>
+        <v>15.3</v>
       </c>
       <c r="R17" t="n">
-        <v>-100</v>
+        <v>-17.7</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.8 (±0.6)</t>
+          <t>147.0 (±15.3)</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.8 (±0.6)</t>
+          <t>-26.0 (±15.3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-100.0% (±0.0%)</t>
+          <t>-17.7% (±7.7%)</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>2469</v>
+        <v>170267</v>
       </c>
       <c r="X17" t="n">
-        <v>-32.4</v>
+        <v>-15.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.3</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-32.4(±24.3)</t>
+          <t>-15.3(±9.0)</t>
         </is>
       </c>
     </row>
@@ -2035,87 +2035,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>147</v>
+        <v>11.6</v>
       </c>
       <c r="K18" t="n">
-        <v>17.4</v>
+        <v>1.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.96</v>
       </c>
       <c r="M18" t="n">
-        <v>15.3</v>
+        <v>1.2</v>
       </c>
       <c r="N18" t="n">
-        <v>131.7</v>
+        <v>10.4</v>
       </c>
       <c r="O18" t="n">
-        <v>162.3</v>
+        <v>12.8</v>
       </c>
       <c r="P18" t="n">
-        <v>-26</v>
+        <v>-1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.3</v>
+        <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>-17.7</v>
+        <v>-13.8</v>
       </c>
       <c r="S18" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>147.0 (±15.3)</t>
+          <t>11.6 (±1.2)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-26.0 (±15.3)</t>
+          <t>-1.6 (±1.2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-17.7% (±7.7%)</t>
+          <t>-13.8% (±8.1%)</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>170267</v>
+        <v>48912</v>
       </c>
       <c r="X18" t="n">
-        <v>-15.3</v>
+        <v>-3.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-15.3(±9.0)</t>
+          <t>-3.3(±2.5)</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2137,77 +2137,77 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n">
         <v>12</v>
       </c>
-      <c r="G19" t="n">
-        <v>10</v>
-      </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="K19" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.96</v>
       </c>
       <c r="M19" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="N19" t="n">
-        <v>10.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>12.8</v>
+        <v>16.5</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.6</v>
+        <v>-2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="R19" t="n">
-        <v>-13.8</v>
+        <v>-20.6</v>
       </c>
       <c r="S19" t="n">
-        <v>8.1</v>
+        <v>18.8</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>11.6 (±1.2)</t>
+          <t>12.6 (±3.9)</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-1.6 (±1.2)</t>
+          <t>-2.6 (±3.9)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-13.8% (±8.1%)</t>
+          <t>-20.6% (±18.8%)</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>48912</v>
+        <v>40451</v>
       </c>
       <c r="X19" t="n">
-        <v>-3.3</v>
+        <v>-6.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-3.3(±2.5)</t>
+          <t>-6.4(±9.6)</t>
         </is>
       </c>
     </row>
@@ -2219,87 +2219,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>12.6</v>
+        <v>17.8</v>
       </c>
       <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>17.8 (±2.0)</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2.2 (±2.0)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>12.4% (±11.4%)</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>44011</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.5</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>12.6 (±3.9)</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-2.6 (±3.9)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-20.6% (±18.8%)</t>
-        </is>
-      </c>
-      <c r="W20" t="n">
-        <v>40451</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.6</v>
-      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-6.4(±9.6)</t>
+          <t>5.0(±4.5)</t>
         </is>
       </c>
     </row>
@@ -2311,87 +2311,87 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2020</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="J21" t="n">
-        <v>17.8</v>
+        <v>344.8000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>12.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.96</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>10.6</v>
       </c>
       <c r="N21" t="n">
-        <v>15.8</v>
+        <v>334.2</v>
       </c>
       <c r="O21" t="n">
-        <v>19.8</v>
+        <v>355.4000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>10.6</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>5.9</v>
       </c>
       <c r="S21" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>17.8 (±2.0)</t>
+          <t>344.8 (±10.6)</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2.2 (±2.0)</t>
+          <t>20.2 (±10.6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>12.4% (±11.4%)</t>
+          <t>5.9% (±3.2%)</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>44011</v>
+        <v>1066068</v>
       </c>
       <c r="X21" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>5.0(±4.5)</t>
+          <t>1.9(±1.0)</t>
         </is>
       </c>
     </row>
@@ -2403,87 +2403,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="E22" t="n">
-        <v>332</v>
+        <v>119</v>
       </c>
       <c r="F22" t="n">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="G22" t="n">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="H22" t="n">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="I22" t="n">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="J22" t="n">
-        <v>344.8000000000001</v>
+        <v>111.6</v>
       </c>
       <c r="K22" t="n">
-        <v>12.1</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.96</v>
       </c>
       <c r="M22" t="n">
-        <v>10.6</v>
+        <v>4.9</v>
       </c>
       <c r="N22" t="n">
-        <v>334.2</v>
+        <v>106.7</v>
       </c>
       <c r="O22" t="n">
-        <v>355.4000000000001</v>
+        <v>116.5</v>
       </c>
       <c r="P22" t="n">
-        <v>20.2</v>
+        <v>-5.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.6</v>
+        <v>4.9</v>
       </c>
       <c r="R22" t="n">
-        <v>5.9</v>
+        <v>-5</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>344.8 (±10.6)</t>
+          <t>111.6 (±4.9)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20.2 (±10.6)</t>
+          <t>-5.6 (±4.9)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>5.9% (±3.2%)</t>
+          <t>-5.0% (±4.0%)</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>1066068</v>
+        <v>356127</v>
       </c>
       <c r="X22" t="n">
-        <v>1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>1.9(±1.0)</t>
+          <t>-1.6(±1.4)</t>
         </is>
       </c>
     </row>
@@ -2495,87 +2495,87 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>105</v>
+        <v>1443</v>
       </c>
       <c r="E23" t="n">
-        <v>119</v>
+        <v>1235</v>
       </c>
       <c r="F23" t="n">
-        <v>109</v>
+        <v>1298</v>
       </c>
       <c r="G23" t="n">
-        <v>105</v>
+        <v>1292</v>
       </c>
       <c r="H23" t="n">
-        <v>103</v>
+        <v>1306</v>
       </c>
       <c r="I23" t="n">
-        <v>106</v>
+        <v>1231</v>
       </c>
       <c r="J23" t="n">
-        <v>111.6</v>
+        <v>1288.4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>32.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>4.9</v>
+        <v>28.5</v>
       </c>
       <c r="N23" t="n">
-        <v>106.7</v>
+        <v>1259.9</v>
       </c>
       <c r="O23" t="n">
-        <v>116.5</v>
+        <v>1316.9</v>
       </c>
       <c r="P23" t="n">
-        <v>-6.6</v>
+        <v>154.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.9</v>
+        <v>28.5</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.9</v>
+        <v>12</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>111.6 (±4.9)</t>
+          <t>1288.4 (±28.5)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-6.6 (±4.9)</t>
+          <t>154.6 (±28.5)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-5.9% (±4.0%)</t>
+          <t>12.0% (±2.4%)</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>356127</v>
+        <v>2952254</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.9</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-1.9(±1.4)</t>
+          <t>5.2(±1.0)</t>
         </is>
       </c>
     </row>
@@ -2587,87 +2587,87 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>1443</v>
+        <v>243</v>
       </c>
       <c r="E24" t="n">
-        <v>1235</v>
+        <v>246</v>
       </c>
       <c r="F24" t="n">
-        <v>1298</v>
+        <v>254</v>
       </c>
       <c r="G24" t="n">
-        <v>1292</v>
+        <v>262</v>
       </c>
       <c r="H24" t="n">
-        <v>1306</v>
+        <v>222</v>
       </c>
       <c r="I24" t="n">
-        <v>1231</v>
+        <v>252</v>
       </c>
       <c r="J24" t="n">
-        <v>1288.4</v>
+        <v>252</v>
       </c>
       <c r="K24" t="n">
-        <v>32.5</v>
+        <v>13.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>28.5</v>
+        <v>11.9</v>
       </c>
       <c r="N24" t="n">
-        <v>1259.9</v>
+        <v>240.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1316.9</v>
+        <v>263.9</v>
       </c>
       <c r="P24" t="n">
-        <v>154.6</v>
+        <v>-9</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.5</v>
+        <v>11.9</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>-3.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1288.4 (±28.5)</t>
+          <t>252.0 (±11.9)</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>154.6 (±28.5)</t>
+          <t>-9.0 (±11.9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>12.0% (±2.4%)</t>
+          <t>-3.6% (±4.3%)</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>2952254</v>
+        <v>637279</v>
       </c>
       <c r="X24" t="n">
-        <v>5.2</v>
+        <v>-1.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>5.2(±1.0)</t>
+          <t>-1.4(±1.9)</t>
         </is>
       </c>
     </row>
@@ -2679,87 +2679,87 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>2020</v>
       </c>
       <c r="D25" t="n">
-        <v>243</v>
+        <v>819</v>
       </c>
       <c r="E25" t="n">
-        <v>246</v>
+        <v>844</v>
       </c>
       <c r="F25" t="n">
-        <v>254</v>
+        <v>793</v>
       </c>
       <c r="G25" t="n">
-        <v>262</v>
+        <v>795</v>
       </c>
       <c r="H25" t="n">
-        <v>222</v>
+        <v>752</v>
       </c>
       <c r="I25" t="n">
-        <v>252</v>
+        <v>690</v>
       </c>
       <c r="J25" t="n">
-        <v>252</v>
+        <v>799.6</v>
       </c>
       <c r="K25" t="n">
-        <v>13.6</v>
+        <v>51.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.96</v>
       </c>
       <c r="M25" t="n">
-        <v>11.9</v>
+        <v>45.1</v>
       </c>
       <c r="N25" t="n">
-        <v>240.1</v>
+        <v>754.5</v>
       </c>
       <c r="O25" t="n">
-        <v>263.9</v>
+        <v>844.7</v>
       </c>
       <c r="P25" t="n">
-        <v>-9</v>
+        <v>19.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.9</v>
+        <v>45.1</v>
       </c>
       <c r="R25" t="n">
-        <v>-3.6</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>252.0 (±11.9)</t>
+          <t>799.6 (±45.1)</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-9.0 (±11.9)</t>
+          <t>19.4 (±45.1)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-3.6% (±4.3%)</t>
+          <t>2.4% (±5.4%)</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>637279</v>
+        <v>1300038</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-1.4(±1.9)</t>
+          <t>1.5(±3.5)</t>
         </is>
       </c>
     </row>
@@ -2771,87 +2771,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>819</v>
+        <v>183</v>
       </c>
       <c r="E26" t="n">
-        <v>844</v>
+        <v>173</v>
       </c>
       <c r="F26" t="n">
-        <v>793</v>
+        <v>229</v>
       </c>
       <c r="G26" t="n">
-        <v>795</v>
+        <v>180</v>
       </c>
       <c r="H26" t="n">
-        <v>752</v>
+        <v>153</v>
       </c>
       <c r="I26" t="n">
-        <v>690</v>
+        <v>184</v>
       </c>
       <c r="J26" t="n">
-        <v>799.6</v>
+        <v>187.8</v>
       </c>
       <c r="K26" t="n">
-        <v>51.5</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
         <v>1.96</v>
       </c>
       <c r="M26" t="n">
-        <v>45.1</v>
+        <v>21.9</v>
       </c>
       <c r="N26" t="n">
-        <v>754.5</v>
+        <v>165.8999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>844.7</v>
+        <v>209.7</v>
       </c>
       <c r="P26" t="n">
-        <v>19.4</v>
+        <v>-4.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.1</v>
+        <v>21.9</v>
       </c>
       <c r="R26" t="n">
-        <v>2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="S26" t="n">
-        <v>5.4</v>
+        <v>10.1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>799.6 (±45.1)</t>
+          <t>187.8 (±21.9)</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>19.4 (±45.1)</t>
+          <t>-4.8 (±21.9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2.4% (±5.4%)</t>
+          <t>-2.6% (±10.1%)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>1300038</v>
+        <v>412863</v>
       </c>
       <c r="X26" t="n">
-        <v>1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>1.5(±3.5)</t>
+          <t>-1.2(±5.3)</t>
         </is>
       </c>
     </row>
@@ -2863,87 +2863,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F27" t="n">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="H27" t="n">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I27" t="n">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="J27" t="n">
-        <v>187.8</v>
+        <v>46.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>21.9</v>
+        <v>3.9</v>
       </c>
       <c r="N27" t="n">
-        <v>165.8999999999999</v>
+        <v>42.69999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>209.7</v>
+        <v>50.49999999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>-4.8</v>
+        <v>-9.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.9</v>
+        <v>3.9</v>
       </c>
       <c r="R27" t="n">
-        <v>-2.6</v>
+        <v>-20.6</v>
       </c>
       <c r="S27" t="n">
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>187.8 (±21.9)</t>
+          <t>46.6 (±3.9)</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-4.8 (±21.9)</t>
+          <t>-9.6 (±3.9)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-2.6% (±10.1%)</t>
+          <t>-20.6% (±6.1%)</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>412863</v>
+        <v>135173</v>
       </c>
       <c r="X27" t="n">
-        <v>-1.2</v>
+        <v>-7.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-1.2(±5.3)</t>
+          <t>-7.1(±2.9)</t>
         </is>
       </c>
     </row>
@@ -2955,87 +2955,87 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>876</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>882</v>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>894</v>
       </c>
       <c r="G28" t="n">
-        <v>41</v>
+        <v>853</v>
       </c>
       <c r="H28" t="n">
-        <v>41</v>
+        <v>807</v>
       </c>
       <c r="I28" t="n">
-        <v>44</v>
+        <v>764</v>
       </c>
       <c r="J28" t="n">
-        <v>46.59999999999999</v>
+        <v>849.6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>48.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.96</v>
       </c>
       <c r="M28" t="n">
-        <v>3.9</v>
+        <v>42.4</v>
       </c>
       <c r="N28" t="n">
-        <v>42.69999999999999</v>
+        <v>807.2</v>
       </c>
       <c r="O28" t="n">
-        <v>50.49999999999999</v>
+        <v>892</v>
       </c>
       <c r="P28" t="n">
-        <v>-9.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.9</v>
+        <v>42.4</v>
       </c>
       <c r="R28" t="n">
-        <v>-20.6</v>
+        <v>3.1</v>
       </c>
       <c r="S28" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>46.6 (±3.9)</t>
+          <t>849.6 (±42.4)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-9.6 (±3.9)</t>
+          <t>26.4 (±42.4)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-20.6% (±6.1%)</t>
+          <t>3.1% (±4.9%)</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>135173</v>
+        <v>3060796</v>
       </c>
       <c r="X28" t="n">
-        <v>-7.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-7.1(±2.9)</t>
+          <t>0.9(±1.3)</t>
         </is>
       </c>
     </row>
@@ -3047,87 +3047,87 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>876</v>
+        <v>203</v>
       </c>
       <c r="E29" t="n">
-        <v>882</v>
+        <v>182</v>
       </c>
       <c r="F29" t="n">
-        <v>894</v>
+        <v>175</v>
       </c>
       <c r="G29" t="n">
-        <v>853</v>
+        <v>163</v>
       </c>
       <c r="H29" t="n">
-        <v>807</v>
+        <v>184</v>
       </c>
       <c r="I29" t="n">
-        <v>764</v>
+        <v>180</v>
       </c>
       <c r="J29" t="n">
-        <v>849.6</v>
+        <v>179.2</v>
       </c>
       <c r="K29" t="n">
-        <v>48.4</v>
+        <v>7.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.96</v>
       </c>
       <c r="M29" t="n">
-        <v>42.4</v>
+        <v>6.6</v>
       </c>
       <c r="N29" t="n">
-        <v>807.2</v>
+        <v>172.6</v>
       </c>
       <c r="O29" t="n">
-        <v>892</v>
+        <v>185.8</v>
       </c>
       <c r="P29" t="n">
-        <v>26.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.4</v>
+        <v>6.6</v>
       </c>
       <c r="R29" t="n">
-        <v>3.1</v>
+        <v>13.3</v>
       </c>
       <c r="S29" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>849.6 (±42.4)</t>
+          <t>179.2 (±6.6)</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26.4 (±42.4)</t>
+          <t>23.8 (±6.6)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>3.1% (±4.9%)</t>
+          <t>13.3% (±4.0%)</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>3060796</v>
+        <v>665413</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0.9(±1.3)</t>
+          <t>3.6(±1.0)</t>
         </is>
       </c>
     </row>
@@ -3139,179 +3139,179 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E30" t="n">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F30" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G30" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H30" t="n">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="I30" t="n">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J30" t="n">
-        <v>179.2</v>
+        <v>152.2</v>
       </c>
       <c r="K30" t="n">
-        <v>7.5</v>
+        <v>12.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.96</v>
       </c>
       <c r="M30" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>172.6</v>
+        <v>141</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8</v>
+        <v>163.4</v>
       </c>
       <c r="P30" t="n">
-        <v>23.8</v>
+        <v>7.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="R30" t="n">
-        <v>13.3</v>
+        <v>5.1</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>179.2 (±6.6)</t>
+          <t>152.2 (±11.2)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23.8 (±6.6)</t>
+          <t>7.8 (±11.2)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>13.3% (±4.0%)</t>
+          <t>5.1% (±7.2%)</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>665413</v>
+        <v>608327</v>
       </c>
       <c r="X30" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>3.6(±1.0)</t>
+          <t>1.3(±1.8)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="E31" t="n">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="F31" t="n">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="G31" t="n">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="H31" t="n">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="I31" t="n">
-        <v>141</v>
+        <v>376</v>
       </c>
       <c r="J31" t="n">
-        <v>152.2</v>
+        <v>360.2</v>
       </c>
       <c r="K31" t="n">
-        <v>12.8</v>
+        <v>14</v>
       </c>
       <c r="L31" t="n">
         <v>1.96</v>
       </c>
       <c r="M31" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="N31" t="n">
-        <v>141</v>
+        <v>347.9</v>
       </c>
       <c r="O31" t="n">
-        <v>163.4</v>
+        <v>372.5</v>
       </c>
       <c r="P31" t="n">
-        <v>7.8</v>
+        <v>28.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="R31" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="S31" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>152.2 (±11.2)</t>
+          <t>360.2 (±12.3)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>7.8 (±11.2)</t>
+          <t>28.8 (±12.3)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>5.1% (±7.2%)</t>
+          <t>8.0% (±3.6%)</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>608327</v>
+        <v>616542</v>
       </c>
       <c r="X31" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>1.3(±1.8)</t>
+          <t>4.7(±2.0)</t>
         </is>
       </c>
     </row>
@@ -3323,87 +3323,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>389</v>
+        <v>592</v>
       </c>
       <c r="E32" t="n">
-        <v>367</v>
+        <v>605</v>
       </c>
       <c r="F32" t="n">
-        <v>355</v>
+        <v>565</v>
       </c>
       <c r="G32" t="n">
-        <v>335</v>
+        <v>557</v>
       </c>
       <c r="H32" t="n">
-        <v>352</v>
+        <v>556</v>
       </c>
       <c r="I32" t="n">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="J32" t="n">
-        <v>360.2</v>
+        <v>572.9999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>14</v>
+        <v>23.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>12.3</v>
+        <v>20.3</v>
       </c>
       <c r="N32" t="n">
-        <v>347.9</v>
+        <v>552.6999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>372.5</v>
+        <v>593.2999999999998</v>
       </c>
       <c r="P32" t="n">
-        <v>28.8</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.3</v>
+        <v>20.3</v>
       </c>
       <c r="R32" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>360.2 (±12.3)</t>
+          <t>573.0 (±20.3)</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>28.8 (±12.3)</t>
+          <t>19.0 (±20.3)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>8.0% (±3.6%)</t>
+          <t>3.3% (±3.5%)</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>616542</v>
+        <v>750318</v>
       </c>
       <c r="X32" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>4.7(±2.0)</t>
+          <t>2.5(±2.7)</t>
         </is>
       </c>
     </row>
@@ -3415,87 +3415,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>592</v>
+        <v>792</v>
       </c>
       <c r="E33" t="n">
-        <v>605</v>
+        <v>740</v>
       </c>
       <c r="F33" t="n">
-        <v>565</v>
+        <v>769</v>
       </c>
       <c r="G33" t="n">
-        <v>557</v>
+        <v>669</v>
       </c>
       <c r="H33" t="n">
-        <v>556</v>
+        <v>727</v>
       </c>
       <c r="I33" t="n">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="J33" t="n">
-        <v>572.9999999999999</v>
+        <v>732</v>
       </c>
       <c r="K33" t="n">
-        <v>23.2</v>
+        <v>37.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.96</v>
       </c>
       <c r="M33" t="n">
-        <v>20.3</v>
+        <v>33</v>
       </c>
       <c r="N33" t="n">
-        <v>552.6999999999999</v>
+        <v>699</v>
       </c>
       <c r="O33" t="n">
-        <v>593.2999999999998</v>
+        <v>765</v>
       </c>
       <c r="P33" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.3</v>
+        <v>33</v>
       </c>
       <c r="R33" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>573.0 (±20.3)</t>
+          <t>732.0 (±33.0)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19.0 (±20.3)</t>
+          <t>60.0 (±33.0)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>3.3% (±3.5%)</t>
+          <t>8.2% (±4.7%)</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>750318</v>
+        <v>493641</v>
       </c>
       <c r="X33" t="n">
-        <v>2.5</v>
+        <v>12.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2.5(±2.7)</t>
+          <t>12.2(±6.6)</t>
         </is>
       </c>
     </row>
@@ -3507,87 +3507,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>792</v>
+        <v>242</v>
       </c>
       <c r="E34" t="n">
-        <v>740</v>
+        <v>281</v>
       </c>
       <c r="F34" t="n">
-        <v>769</v>
+        <v>241</v>
       </c>
       <c r="G34" t="n">
-        <v>669</v>
+        <v>246</v>
       </c>
       <c r="H34" t="n">
-        <v>727</v>
+        <v>250</v>
       </c>
       <c r="I34" t="n">
-        <v>679</v>
+        <v>253</v>
       </c>
       <c r="J34" t="n">
-        <v>732</v>
+        <v>255.8</v>
       </c>
       <c r="K34" t="n">
-        <v>37.6</v>
+        <v>14</v>
       </c>
       <c r="L34" t="n">
         <v>1.96</v>
       </c>
       <c r="M34" t="n">
-        <v>33</v>
+        <v>12.3</v>
       </c>
       <c r="N34" t="n">
-        <v>699</v>
+        <v>243.4999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>765</v>
+        <v>268.1</v>
       </c>
       <c r="P34" t="n">
-        <v>60</v>
+        <v>-13.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>33</v>
+        <v>12.3</v>
       </c>
       <c r="R34" t="n">
-        <v>8.199999999999999</v>
+        <v>-5.4</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>732.0 (±33.0)</t>
+          <t>255.8 (±12.3)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>60.0 (±33.0)</t>
+          <t>-13.8 (±12.3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>8.2% (±4.7%)</t>
+          <t>-5.4% (±4.3%)</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>493641</v>
+        <v>275641</v>
       </c>
       <c r="X34" t="n">
-        <v>12.2</v>
+        <v>-5</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12.2(±6.6)</t>
+          <t>-5.0(±4.5)</t>
         </is>
       </c>
     </row>
@@ -3599,87 +3599,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="F35" t="n">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="G35" t="n">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="I35" t="n">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="J35" t="n">
-        <v>255.8</v>
+        <v>37.60000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>14</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.96</v>
       </c>
       <c r="M35" t="n">
-        <v>12.3</v>
+        <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>243.4999999999999</v>
+        <v>34.20000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>268.1</v>
+        <v>41.00000000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>-13.8</v>
+        <v>-2.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>12.3</v>
+        <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.4</v>
+        <v>-6.9</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>7.7</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>255.8 (±12.3)</t>
+          <t>37.6 (±3.4)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-13.8 (±12.3)</t>
+          <t>-2.6 (±3.4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-5.4% (±4.3%)</t>
+          <t>-6.9% (±7.7%)</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>275641</v>
+        <v>71198</v>
       </c>
       <c r="X35" t="n">
-        <v>-5</v>
+        <v>-3.7</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-5.0(±4.5)</t>
+          <t>-3.7(±4.8)</t>
         </is>
       </c>
     </row>
@@ -3691,87 +3691,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>707</v>
       </c>
       <c r="E36" t="n">
-        <v>39</v>
+        <v>767</v>
       </c>
       <c r="F36" t="n">
-        <v>36</v>
+        <v>651</v>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>673</v>
       </c>
       <c r="H36" t="n">
-        <v>37</v>
+        <v>701</v>
       </c>
       <c r="I36" t="n">
-        <v>44</v>
+        <v>642</v>
       </c>
       <c r="J36" t="n">
-        <v>37.60000000000001</v>
+        <v>703.5999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>45</v>
       </c>
       <c r="L36" t="n">
         <v>1.96</v>
       </c>
       <c r="M36" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>664.1999999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>742.9999999999999</v>
+      </c>
+      <c r="P36" t="n">
         <v>3.4</v>
       </c>
-      <c r="N36" t="n">
-        <v>34.20000000000001</v>
-      </c>
-      <c r="O36" t="n">
-        <v>41.00000000000001</v>
-      </c>
-      <c r="P36" t="n">
-        <v>-2.6</v>
-      </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>39.4</v>
       </c>
       <c r="R36" t="n">
-        <v>-6.9</v>
+        <v>0.5</v>
       </c>
       <c r="S36" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>37.6 (±3.4)</t>
+          <t>703.6 (±39.4)</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-2.6 (±3.4)</t>
+          <t>3.4 (±39.4)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-6.9% (±7.7%)</t>
+          <t>0.5% (±5.3%)</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>71198</v>
+        <v>767173</v>
       </c>
       <c r="X36" t="n">
-        <v>-3.7</v>
+        <v>0.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-3.7(±4.8)</t>
+          <t>0.4(±5.2)</t>
         </is>
       </c>
     </row>
@@ -3783,87 +3783,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>707</v>
+        <v>203</v>
       </c>
       <c r="E37" t="n">
-        <v>767</v>
+        <v>194</v>
       </c>
       <c r="F37" t="n">
-        <v>651</v>
+        <v>203</v>
       </c>
       <c r="G37" t="n">
-        <v>673</v>
+        <v>187</v>
       </c>
       <c r="H37" t="n">
-        <v>701</v>
+        <v>215</v>
       </c>
       <c r="I37" t="n">
-        <v>642</v>
+        <v>193</v>
       </c>
       <c r="J37" t="n">
-        <v>703.5999999999999</v>
+        <v>201.6000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>45</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L37" t="n">
         <v>1.96</v>
       </c>
       <c r="M37" t="n">
-        <v>39.4</v>
+        <v>8.5</v>
       </c>
       <c r="N37" t="n">
-        <v>664.1999999999999</v>
+        <v>193.1000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>742.9999999999999</v>
+        <v>210.1000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.4</v>
+        <v>8.5</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S37" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>703.6 (±39.4)</t>
+          <t>201.6 (±8.5)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>3.4 (±39.4)</t>
+          <t>1.4 (±8.5)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.5% (±5.3%)</t>
+          <t>0.7% (±4.1%)</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>767173</v>
+        <v>348812</v>
       </c>
       <c r="X37" t="n">
         <v>0.4</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0.4(±5.2)</t>
+          <t>0.4(±2.4)</t>
         </is>
       </c>
     </row>
@@ -3875,87 +3875,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E38" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F38" t="n">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="G38" t="n">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="H38" t="n">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="I38" t="n">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="J38" t="n">
-        <v>201.6000000000001</v>
+        <v>152</v>
       </c>
       <c r="K38" t="n">
-        <v>9.699999999999999</v>
+        <v>28.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.96</v>
       </c>
       <c r="M38" t="n">
-        <v>8.5</v>
+        <v>25.2</v>
       </c>
       <c r="N38" t="n">
-        <v>193.1000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="O38" t="n">
-        <v>210.1000000000001</v>
+        <v>177.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>8.5</v>
+        <v>25.2</v>
       </c>
       <c r="R38" t="n">
         <v>0.7</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>14.4</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>201.6 (±8.5)</t>
+          <t>152.0 (±25.2)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1.4 (±8.5)</t>
+          <t>1.0 (±25.2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.7% (±4.1%)</t>
+          <t>0.7% (±14.4%)</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>348812</v>
+        <v>102693</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.4</v>
+        <v>24.5</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0.4(±2.4)</t>
+          <t>1.0(±24.5)</t>
         </is>
       </c>
     </row>
@@ -3967,87 +3967,87 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="E39" t="n">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="F39" t="n">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="G39" t="n">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="H39" t="n">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="I39" t="n">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="J39" t="n">
-        <v>152</v>
+        <v>330.9999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>28.8</v>
+        <v>10.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.96</v>
       </c>
       <c r="M39" t="n">
-        <v>25.2</v>
+        <v>9</v>
       </c>
       <c r="N39" t="n">
-        <v>126.8</v>
+        <v>321.9999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>177.2</v>
+        <v>339.9999999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.2</v>
+        <v>9</v>
       </c>
       <c r="R39" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="S39" t="n">
-        <v>14.4</v>
+        <v>2.6</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>152.0 (±25.2)</t>
+          <t>331.0 (±9.0)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1.0 (±25.2)</t>
+          <t>-4.0 (±9.0)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.7% (±14.4%)</t>
+          <t>-1.2% (±2.6%)</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>102693</v>
+        <v>367237</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>-1.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>24.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>1.0(±24.5)</t>
+          <t>-1.1(±2.5)</t>
         </is>
       </c>
     </row>
@@ -4059,87 +4059,87 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>327</v>
+        <v>3413</v>
       </c>
       <c r="E40" t="n">
-        <v>317</v>
+        <v>3508</v>
       </c>
       <c r="F40" t="n">
-        <v>326</v>
+        <v>3310</v>
       </c>
       <c r="G40" t="n">
-        <v>317</v>
+        <v>3312</v>
       </c>
       <c r="H40" t="n">
-        <v>304</v>
+        <v>3422</v>
       </c>
       <c r="I40" t="n">
-        <v>335</v>
+        <v>3395</v>
       </c>
       <c r="J40" t="n">
-        <v>330.9999999999999</v>
+        <v>3450.200000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>10.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="L40" t="n">
         <v>1.96</v>
       </c>
       <c r="M40" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>321.9999999999999</v>
+        <v>3385.200000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>339.9999999999999</v>
+        <v>3515.200000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>-4</v>
+        <v>-37.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="S40" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>331.0 (±9.0)</t>
+          <t>3450.2 (±65.0)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-4.0 (±9.0)</t>
+          <t>-37.2 (±65.0)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-1.2% (±2.6%)</t>
+          <t>-1.1% (±1.8%)</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>367237</v>
+        <v>4048789</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-1.1(±2.5)</t>
+          <t>-0.9(±1.6)</t>
         </is>
       </c>
     </row>
@@ -4151,87 +4151,87 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>3413</v>
+        <v>511</v>
       </c>
       <c r="E41" t="n">
-        <v>3508</v>
+        <v>638</v>
       </c>
       <c r="F41" t="n">
-        <v>3310</v>
+        <v>566</v>
       </c>
       <c r="G41" t="n">
-        <v>3312</v>
+        <v>538</v>
       </c>
       <c r="H41" t="n">
-        <v>3422</v>
+        <v>599</v>
       </c>
       <c r="I41" t="n">
-        <v>3395</v>
+        <v>507</v>
       </c>
       <c r="J41" t="n">
-        <v>3450.200000000001</v>
+        <v>582.3999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>74.09999999999999</v>
+        <v>45.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.96</v>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>40.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3385.200000000001</v>
+        <v>542.2999999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>3515.200000000001</v>
+        <v>622.4999999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>-37.2</v>
+        <v>-71.40000000000001</v>
       </c>
       <c r="Q41" t="n">
-        <v>65</v>
+        <v>40.1</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.1</v>
+        <v>-12.3</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>3450.2 (±65.0)</t>
+          <t>582.4 (±40.1)</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-37.2 (±65.0)</t>
+          <t>-71.4 (±40.1)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-1.1% (±1.8%)</t>
+          <t>-12.3% (±5.6%)</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>4048789</v>
+        <v>667848</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.9</v>
+        <v>-10.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-0.9(±1.6)</t>
+          <t>-10.7(±6.0)</t>
         </is>
       </c>
     </row>
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>511</v>
+        <v>672</v>
       </c>
       <c r="E42" t="n">
-        <v>638</v>
+        <v>786</v>
       </c>
       <c r="F42" t="n">
-        <v>566</v>
+        <v>656</v>
       </c>
       <c r="G42" t="n">
-        <v>538</v>
+        <v>692</v>
       </c>
       <c r="H42" t="n">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="I42" t="n">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="J42" t="n">
-        <v>582.3999999999999</v>
+        <v>691.6</v>
       </c>
       <c r="K42" t="n">
-        <v>45.8</v>
+        <v>58.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.96</v>
       </c>
       <c r="M42" t="n">
-        <v>40.1</v>
+        <v>51.4</v>
       </c>
       <c r="N42" t="n">
-        <v>542.2999999999998</v>
+        <v>640.2</v>
       </c>
       <c r="O42" t="n">
-        <v>622.4999999999999</v>
+        <v>743</v>
       </c>
       <c r="P42" t="n">
-        <v>-71.40000000000001</v>
+        <v>-19.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.1</v>
+        <v>51.4</v>
       </c>
       <c r="R42" t="n">
-        <v>-12.3</v>
+        <v>-2.8</v>
       </c>
       <c r="S42" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>582.4 (±40.1)</t>
+          <t>691.6 (±51.4)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-71.4 (±40.1)</t>
+          <t>-19.6 (±51.4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-12.3% (±5.6%)</t>
+          <t>-2.8% (±6.8%)</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>667848</v>
+        <v>652020</v>
       </c>
       <c r="X42" t="n">
-        <v>-10.7</v>
+        <v>-3</v>
       </c>
       <c r="Y42" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>-10.7(±6.0)</t>
+          <t>-3.0(±7.9)</t>
         </is>
       </c>
     </row>
@@ -4335,87 +4335,87 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>672</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>786</v>
+        <v>18</v>
       </c>
       <c r="F43" t="n">
-        <v>656</v>
+        <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>692</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
-        <v>656</v>
+        <v>25</v>
       </c>
       <c r="I43" t="n">
-        <v>612</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
-        <v>691.6</v>
+        <v>24.79999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>58.6</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>1.96</v>
       </c>
       <c r="M43" t="n">
-        <v>51.4</v>
+        <v>4.4</v>
       </c>
       <c r="N43" t="n">
-        <v>640.2</v>
+        <v>20.39999999999999</v>
       </c>
       <c r="O43" t="n">
-        <v>743</v>
+        <v>29.2</v>
       </c>
       <c r="P43" t="n">
-        <v>-19.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.4</v>
+        <v>4.4</v>
       </c>
       <c r="R43" t="n">
-        <v>-2.8</v>
+        <v>0.8</v>
       </c>
       <c r="S43" t="n">
-        <v>6.8</v>
+        <v>15.2</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>691.6 (±51.4)</t>
+          <t>24.8 (±4.4)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-19.6 (±51.4)</t>
+          <t>0.2 (±4.4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-2.8% (±6.8%)</t>
+          <t>0.8% (±15.2%)</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>652020</v>
+        <v>28808</v>
       </c>
       <c r="X43" t="n">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.9</v>
+        <v>15.3</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>-3.0(±7.9)</t>
+          <t>0.7(±15.3)</t>
         </is>
       </c>
     </row>
@@ -4427,87 +4427,87 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>1770</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>2128</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>1982</v>
       </c>
       <c r="G44" t="n">
-        <v>32</v>
+        <v>1850</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>1842</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>1730</v>
       </c>
       <c r="J44" t="n">
-        <v>24.79999999999999</v>
+        <v>1944.8</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>136.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.96</v>
       </c>
       <c r="M44" t="n">
-        <v>4.4</v>
+        <v>119.7</v>
       </c>
       <c r="N44" t="n">
-        <v>20.39999999999999</v>
+        <v>1825.1</v>
       </c>
       <c r="O44" t="n">
-        <v>29.2</v>
+        <v>2064.5</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2</v>
+        <v>-174.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.4</v>
+        <v>119.7</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8</v>
+        <v>-9</v>
       </c>
       <c r="S44" t="n">
-        <v>15.2</v>
+        <v>5.3</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>24.8 (±4.4)</t>
+          <t>1944.8 (±119.7)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0.2 (±4.4)</t>
+          <t>-174.8 (±119.7)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0.8% (±15.2%)</t>
+          <t>-9.0% (±5.3%)</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>28808</v>
+        <v>3451730</v>
       </c>
       <c r="X44" t="n">
-        <v>0.7</v>
+        <v>-5.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>0.7(±15.3)</t>
+          <t>-5.1(±3.5)</t>
         </is>
       </c>
     </row>
@@ -4519,87 +4519,87 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>1770</v>
+        <v>268</v>
       </c>
       <c r="E45" t="n">
-        <v>2128</v>
+        <v>380</v>
       </c>
       <c r="F45" t="n">
-        <v>1982</v>
+        <v>341</v>
       </c>
       <c r="G45" t="n">
-        <v>1850</v>
+        <v>362</v>
       </c>
       <c r="H45" t="n">
-        <v>1842</v>
+        <v>335</v>
       </c>
       <c r="I45" t="n">
-        <v>1730</v>
+        <v>275</v>
       </c>
       <c r="J45" t="n">
-        <v>1944.8</v>
+        <v>351.4</v>
       </c>
       <c r="K45" t="n">
-        <v>136.6</v>
+        <v>35.6</v>
       </c>
       <c r="L45" t="n">
         <v>1.96</v>
       </c>
       <c r="M45" t="n">
-        <v>119.7</v>
+        <v>31.2</v>
       </c>
       <c r="N45" t="n">
-        <v>1825.1</v>
+        <v>320.2</v>
       </c>
       <c r="O45" t="n">
-        <v>2064.5</v>
+        <v>382.6</v>
       </c>
       <c r="P45" t="n">
-        <v>-174.8</v>
+        <v>-83.40000000000001</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.7</v>
+        <v>31.2</v>
       </c>
       <c r="R45" t="n">
-        <v>-9</v>
+        <v>-23.7</v>
       </c>
       <c r="S45" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>1944.8 (±119.7)</t>
+          <t>351.4 (±31.2)</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-174.8 (±119.7)</t>
+          <t>-83.4 (±31.2)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-9.0% (±5.3%)</t>
+          <t>-23.7% (±6.3%)</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>3451730</v>
+        <v>137752</v>
       </c>
       <c r="X45" t="n">
-        <v>-5.1</v>
+        <v>-60.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.5</v>
+        <v>22.6</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-5.1(±3.5)</t>
+          <t>-60.5(±22.6)</t>
         </is>
       </c>
     </row>
@@ -4611,87 +4611,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="E46" t="n">
-        <v>380</v>
+        <v>558</v>
       </c>
       <c r="F46" t="n">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="G46" t="n">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="H46" t="n">
-        <v>335</v>
+        <v>447</v>
       </c>
       <c r="I46" t="n">
-        <v>275</v>
+        <v>402</v>
       </c>
       <c r="J46" t="n">
-        <v>351.4</v>
+        <v>480.2</v>
       </c>
       <c r="K46" t="n">
-        <v>35.6</v>
+        <v>56.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.96</v>
       </c>
       <c r="M46" t="n">
-        <v>31.2</v>
+        <v>49.8</v>
       </c>
       <c r="N46" t="n">
-        <v>320.2</v>
+        <v>430.4</v>
       </c>
       <c r="O46" t="n">
-        <v>382.6</v>
+        <v>530</v>
       </c>
       <c r="P46" t="n">
-        <v>-83.40000000000001</v>
+        <v>-77.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.2</v>
+        <v>49.8</v>
       </c>
       <c r="R46" t="n">
-        <v>-23.7</v>
+        <v>-16.1</v>
       </c>
       <c r="S46" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>351.4 (±31.2)</t>
+          <t>480.2 (±49.8)</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-83.4 (±31.2)</t>
+          <t>-77.2 (±49.8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-23.7% (±6.3%)</t>
+          <t>-16.1% (±7.9%)</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>137752</v>
+        <v>188972</v>
       </c>
       <c r="X46" t="n">
-        <v>-60.5</v>
+        <v>-40.9</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.6</v>
+        <v>26.4</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>-60.5(±22.6)</t>
+          <t>-40.9(±26.4)</t>
         </is>
       </c>
     </row>
@@ -4703,87 +4703,87 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J47" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>26.40000000000001</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>24.6 (±1.8)</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0.4 (±1.8)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>1.6% (±6.9%)</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>49672</v>
+      </c>
+      <c r="X47" t="n">
         <v>0.8</v>
       </c>
-      <c r="K47" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R47" t="n">
-        <v>25</v>
-      </c>
-      <c r="S47" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0.8 (±0.6)</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>0.2 (±0.6)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>25.0% (±53.6%)</t>
-        </is>
-      </c>
-      <c r="W47" t="n">
-        <v>2498</v>
-      </c>
-      <c r="X47" t="n">
-        <v>8</v>
-      </c>
       <c r="Y47" t="n">
-        <v>24</v>
+        <v>3.6</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>8.0(±24.0)</t>
+          <t>0.8(±3.6)</t>
         </is>
       </c>
     </row>
@@ -4795,87 +4795,87 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>558</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>496</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>418</v>
+        <v>25</v>
       </c>
       <c r="H48" t="n">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="I48" t="n">
-        <v>402</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
-        <v>480.2</v>
+        <v>23.6</v>
       </c>
       <c r="K48" t="n">
-        <v>56.8</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
       </c>
       <c r="M48" t="n">
-        <v>49.8</v>
+        <v>1.9</v>
       </c>
       <c r="N48" t="n">
-        <v>430.4</v>
+        <v>21.70000000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>530</v>
+        <v>25.5</v>
       </c>
       <c r="P48" t="n">
-        <v>-77.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>49.8</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
-        <v>-16.1</v>
+        <v>5.9</v>
       </c>
       <c r="S48" t="n">
         <v>7.9</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>480.2 (±49.8)</t>
+          <t>23.6 (±1.9)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-77.2 (±49.8)</t>
+          <t>1.4 (±1.9)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-16.1% (±7.9%)</t>
+          <t>5.9% (±7.9%)</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>188972</v>
+        <v>48450</v>
       </c>
       <c r="X48" t="n">
-        <v>-40.9</v>
+        <v>2.9</v>
       </c>
       <c r="Y48" t="n">
-        <v>26.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-40.9(±26.4)</t>
+          <t>2.9(±3.9)</t>
         </is>
       </c>
     </row>
@@ -4887,87 +4887,87 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G49" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J49" t="n">
-        <v>24.6</v>
+        <v>49.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.96</v>
       </c>
       <c r="M49" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N49" t="n">
-        <v>22.8</v>
+        <v>43.4</v>
       </c>
       <c r="O49" t="n">
-        <v>26.40000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="P49" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="S49" t="n">
-        <v>6.9</v>
+        <v>11.4</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>24.6 (±1.8)</t>
+          <t>49.4 (±6.0)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0.4 (±1.8)</t>
+          <t>2.6 (±6.0)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>1.6% (±6.9%)</t>
+          <t>5.3% (±11.4%)</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>49672</v>
+        <v>45465</v>
       </c>
       <c r="X49" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y49" t="n">
-        <v>3.6</v>
+        <v>13.2</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>0.8(±3.6)</t>
+          <t>5.7(±13.2)</t>
         </is>
       </c>
     </row>
@@ -4979,87 +4979,87 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>612</v>
       </c>
       <c r="E50" t="n">
-        <v>26</v>
+        <v>530</v>
       </c>
       <c r="F50" t="n">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G50" t="n">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="H50" t="n">
-        <v>21</v>
+        <v>565</v>
       </c>
       <c r="I50" t="n">
-        <v>21</v>
+        <v>537</v>
       </c>
       <c r="J50" t="n">
-        <v>23.6</v>
+        <v>540.5999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>21.3</v>
       </c>
       <c r="L50" t="n">
         <v>1.96</v>
       </c>
       <c r="M50" t="n">
-        <v>1.9</v>
+        <v>18.7</v>
       </c>
       <c r="N50" t="n">
-        <v>21.70000000000001</v>
+        <v>521.8999999999999</v>
       </c>
       <c r="O50" t="n">
-        <v>25.5</v>
+        <v>559.3</v>
       </c>
       <c r="P50" t="n">
-        <v>1.4</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.9</v>
+        <v>18.7</v>
       </c>
       <c r="R50" t="n">
-        <v>5.9</v>
+        <v>13.2</v>
       </c>
       <c r="S50" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>23.6 (±1.9)</t>
+          <t>540.6 (±18.7)</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1.4 (±1.9)</t>
+          <t>71.4 (±18.7)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>5.9% (±7.9%)</t>
+          <t>13.2% (±3.8%)</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>48450</v>
+        <v>1081863</v>
       </c>
       <c r="X50" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="Y50" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2.9(±3.9)</t>
+          <t>6.6(±1.7)</t>
         </is>
       </c>
     </row>
@@ -5071,87 +5071,87 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="E51" t="n">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="G51" t="n">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="H51" t="n">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="I51" t="n">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="J51" t="n">
-        <v>49.4</v>
+        <v>230.8</v>
       </c>
       <c r="K51" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="L51" t="n">
         <v>1.96</v>
       </c>
       <c r="M51" t="n">
-        <v>6</v>
+        <v>16.7</v>
       </c>
       <c r="N51" t="n">
-        <v>43.4</v>
+        <v>214.1000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>55.4</v>
+        <v>247.5</v>
       </c>
       <c r="P51" t="n">
-        <v>2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>16.7</v>
       </c>
       <c r="R51" t="n">
-        <v>5.3</v>
+        <v>-1.2</v>
       </c>
       <c r="S51" t="n">
-        <v>11.4</v>
+        <v>6.7</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>49.4 (±6.0)</t>
+          <t>230.8 (±16.7)</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2.6 (±6.0)</t>
+          <t>-2.8 (±16.7)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>5.3% (±11.4%)</t>
+          <t>-1.2% (±6.7%)</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>45465</v>
+        <v>374420</v>
       </c>
       <c r="X51" t="n">
-        <v>5.7</v>
+        <v>-0.7</v>
       </c>
       <c r="Y51" t="n">
-        <v>13.2</v>
+        <v>4.4</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>5.7(±13.2)</t>
+          <t>-0.7(±4.4)</t>
         </is>
       </c>
     </row>
@@ -5163,87 +5163,87 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>612</v>
+        <v>4966</v>
       </c>
       <c r="E52" t="n">
-        <v>530</v>
+        <v>4529</v>
       </c>
       <c r="F52" t="n">
-        <v>499</v>
+        <v>4365</v>
       </c>
       <c r="G52" t="n">
-        <v>524</v>
+        <v>4400</v>
       </c>
       <c r="H52" t="n">
-        <v>565</v>
+        <v>4467</v>
       </c>
       <c r="I52" t="n">
-        <v>537</v>
+        <v>4532</v>
       </c>
       <c r="J52" t="n">
-        <v>540.5999999999999</v>
+        <v>4554.599999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>21.3</v>
+        <v>67.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
       </c>
       <c r="M52" t="n">
-        <v>18.7</v>
+        <v>58.9</v>
       </c>
       <c r="N52" t="n">
-        <v>521.8999999999999</v>
+        <v>4495.699999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>559.3</v>
+        <v>4613.499999999998</v>
       </c>
       <c r="P52" t="n">
-        <v>71.40000000000001</v>
+        <v>411.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>18.7</v>
+        <v>58.9</v>
       </c>
       <c r="R52" t="n">
-        <v>13.2</v>
+        <v>9</v>
       </c>
       <c r="S52" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>540.6 (±18.7)</t>
+          <t>4554.6 (±58.9)</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>71.4 (±18.7)</t>
+          <t>411.4 (±58.9)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>13.2% (±3.8%)</t>
+          <t>9.0% (±1.4%)</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>1081863</v>
+        <v>3057204</v>
       </c>
       <c r="X52" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>6.6(±1.7)</t>
+          <t>13.5(±1.9)</t>
         </is>
       </c>
     </row>
@@ -5255,87 +5255,87 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>227</v>
+        <v>460</v>
       </c>
       <c r="E53" t="n">
-        <v>216</v>
+        <v>534</v>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="G53" t="n">
-        <v>198</v>
+        <v>483</v>
       </c>
       <c r="H53" t="n">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="I53" t="n">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="J53" t="n">
-        <v>230.8</v>
+        <v>474.2</v>
       </c>
       <c r="K53" t="n">
-        <v>19</v>
+        <v>41.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.96</v>
       </c>
       <c r="M53" t="n">
-        <v>16.7</v>
+        <v>36.6</v>
       </c>
       <c r="N53" t="n">
-        <v>214.1000000000001</v>
+        <v>437.6</v>
       </c>
       <c r="O53" t="n">
-        <v>247.5</v>
+        <v>510.8000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>-3.8</v>
+        <v>-14.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>16.7</v>
+        <v>36.6</v>
       </c>
       <c r="R53" t="n">
-        <v>-1.6</v>
+        <v>-3</v>
       </c>
       <c r="S53" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>230.8 (±16.7)</t>
+          <t>474.2 (±36.6)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-3.8 (±16.7)</t>
+          <t>-14.2 (±36.6)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-1.6% (±6.7%)</t>
+          <t>-3.0% (±6.9%)</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>374420</v>
+        <v>601737</v>
       </c>
       <c r="X53" t="n">
-        <v>-1</v>
+        <v>-2.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-1.0(±4.4)</t>
+          <t>-2.4(±6.1)</t>
         </is>
       </c>
     </row>
@@ -5347,87 +5347,87 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>4966</v>
+        <v>1982</v>
       </c>
       <c r="E54" t="n">
-        <v>4529</v>
+        <v>2104</v>
       </c>
       <c r="F54" t="n">
-        <v>4365</v>
+        <v>1910</v>
       </c>
       <c r="G54" t="n">
-        <v>4400</v>
+        <v>1867</v>
       </c>
       <c r="H54" t="n">
-        <v>4467</v>
+        <v>1827</v>
       </c>
       <c r="I54" t="n">
-        <v>4532</v>
+        <v>1805</v>
       </c>
       <c r="J54" t="n">
-        <v>4554.599999999999</v>
+        <v>1952.200000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>67.2</v>
+        <v>106.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.96</v>
       </c>
       <c r="M54" t="n">
-        <v>58.9</v>
+        <v>93.7</v>
       </c>
       <c r="N54" t="n">
-        <v>4495.699999999999</v>
+        <v>1858.5</v>
       </c>
       <c r="O54" t="n">
-        <v>4613.499999999998</v>
+        <v>2045.900000000001</v>
       </c>
       <c r="P54" t="n">
-        <v>411.4</v>
+        <v>29.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>58.9</v>
+        <v>93.7</v>
       </c>
       <c r="R54" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>4554.6 (±58.9)</t>
+          <t>1952.2 (±93.7)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>411.4 (±58.9)</t>
+          <t>29.8 (±93.7)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>9.0% (±1.4%)</t>
+          <t>1.5% (±4.6%)</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>3057204</v>
+        <v>1394790</v>
       </c>
       <c r="X54" t="n">
-        <v>13.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13.5(±1.9)</t>
+          <t>2.1(±6.8)</t>
         </is>
       </c>
     </row>
@@ -5439,87 +5439,87 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="E55" t="n">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F55" t="n">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="G55" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="H55" t="n">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="I55" t="n">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="J55" t="n">
-        <v>474.2</v>
+        <v>507.6000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>41.7</v>
+        <v>33.2</v>
       </c>
       <c r="L55" t="n">
         <v>1.96</v>
       </c>
       <c r="M55" t="n">
-        <v>36.6</v>
+        <v>29.1</v>
       </c>
       <c r="N55" t="n">
-        <v>437.6</v>
+        <v>478.5000000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>510.8000000000001</v>
+        <v>536.7</v>
       </c>
       <c r="P55" t="n">
-        <v>-14.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>36.6</v>
+        <v>29.1</v>
       </c>
       <c r="R55" t="n">
-        <v>-3</v>
+        <v>0.1</v>
       </c>
       <c r="S55" t="n">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>474.2 (±36.6)</t>
+          <t>507.6 (±29.1)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-14.2 (±36.6)</t>
+          <t>0.4 (±29.1)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-3.0% (±6.9%)</t>
+          <t>0.1% (±5.4%)</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>601737</v>
+        <v>434608</v>
       </c>
       <c r="X55" t="n">
-        <v>-2.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>-2.4(±6.1)</t>
+          <t>0.1(±6.7)</t>
         </is>
       </c>
     </row>
@@ -5531,87 +5531,87 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>1982</v>
+        <v>105</v>
       </c>
       <c r="E56" t="n">
-        <v>2104</v>
+        <v>133</v>
       </c>
       <c r="F56" t="n">
-        <v>1910</v>
+        <v>127</v>
       </c>
       <c r="G56" t="n">
-        <v>1867</v>
+        <v>95</v>
       </c>
       <c r="H56" t="n">
-        <v>1827</v>
+        <v>105</v>
       </c>
       <c r="I56" t="n">
-        <v>1805</v>
+        <v>118</v>
       </c>
       <c r="J56" t="n">
-        <v>1952.200000000001</v>
+        <v>119.6</v>
       </c>
       <c r="K56" t="n">
-        <v>106.9</v>
+        <v>14</v>
       </c>
       <c r="L56" t="n">
         <v>1.96</v>
       </c>
       <c r="M56" t="n">
-        <v>93.7</v>
+        <v>12.3</v>
       </c>
       <c r="N56" t="n">
-        <v>1858.5</v>
+        <v>107.3</v>
       </c>
       <c r="O56" t="n">
-        <v>2045.900000000001</v>
+        <v>131.9</v>
       </c>
       <c r="P56" t="n">
-        <v>29.8</v>
+        <v>-14.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>93.7</v>
+        <v>12.3</v>
       </c>
       <c r="R56" t="n">
-        <v>1.5</v>
+        <v>-12.2</v>
       </c>
       <c r="S56" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>1952.2 (±93.7)</t>
+          <t>119.6 (±12.3)</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>29.8 (±93.7)</t>
+          <t>-14.6 (±12.3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>1.5% (±4.6%)</t>
+          <t>-12.2% (±8.2%)</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>1394790</v>
+        <v>153629</v>
       </c>
       <c r="X56" t="n">
-        <v>2.1</v>
+        <v>-9.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2.1(±6.8)</t>
+          <t>-9.5(±8.0)</t>
         </is>
       </c>
     </row>
@@ -5623,87 +5623,87 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>508</v>
+        <v>1655</v>
       </c>
       <c r="E57" t="n">
-        <v>558</v>
+        <v>1858</v>
       </c>
       <c r="F57" t="n">
-        <v>464</v>
+        <v>1699</v>
       </c>
       <c r="G57" t="n">
-        <v>471</v>
+        <v>1698</v>
       </c>
       <c r="H57" t="n">
-        <v>494</v>
+        <v>1608</v>
       </c>
       <c r="I57" t="n">
-        <v>495</v>
+        <v>1552</v>
       </c>
       <c r="J57" t="n">
-        <v>507.6000000000001</v>
+        <v>1725.4</v>
       </c>
       <c r="K57" t="n">
-        <v>33.2</v>
+        <v>103.8</v>
       </c>
       <c r="L57" t="n">
         <v>1.96</v>
       </c>
       <c r="M57" t="n">
-        <v>29.1</v>
+        <v>91</v>
       </c>
       <c r="N57" t="n">
-        <v>478.5000000000001</v>
+        <v>1634.4</v>
       </c>
       <c r="O57" t="n">
-        <v>536.7</v>
+        <v>1816.4</v>
       </c>
       <c r="P57" t="n">
-        <v>0.4</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="Q57" t="n">
-        <v>29.1</v>
+        <v>91</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1</v>
+        <v>-4.1</v>
       </c>
       <c r="S57" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>507.6 (±29.1)</t>
+          <t>1725.4 (±91.0)</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>0.4 (±29.1)</t>
+          <t>-70.4 (±91.0)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>0.1% (±5.4%)</t>
+          <t>-4.1% (±4.8%)</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>434608</v>
+        <v>3042525</v>
       </c>
       <c r="X57" t="n">
-        <v>0.1</v>
+        <v>-2.3</v>
       </c>
       <c r="Y57" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0.1(±6.7)</t>
+          <t>-2.3(±3.0)</t>
         </is>
       </c>
     </row>
@@ -5715,87 +5715,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="E58" t="n">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="F58" t="n">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="G58" t="n">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="H58" t="n">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="I58" t="n">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="J58" t="n">
-        <v>119.6</v>
+        <v>374.4</v>
       </c>
       <c r="K58" t="n">
-        <v>14</v>
+        <v>22.6</v>
       </c>
       <c r="L58" t="n">
         <v>1.96</v>
       </c>
       <c r="M58" t="n">
-        <v>12.3</v>
+        <v>19.8</v>
       </c>
       <c r="N58" t="n">
-        <v>107.3</v>
+        <v>354.6</v>
       </c>
       <c r="O58" t="n">
-        <v>131.9</v>
+        <v>394.2</v>
       </c>
       <c r="P58" t="n">
-        <v>-14.6</v>
+        <v>-46.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>12.3</v>
+        <v>19.8</v>
       </c>
       <c r="R58" t="n">
-        <v>-12.2</v>
+        <v>-12.4</v>
       </c>
       <c r="S58" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>119.6 (±12.3)</t>
+          <t>374.4 (±19.8)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-14.6 (±12.3)</t>
+          <t>-46.4 (±19.8)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>-12.2% (±8.2%)</t>
+          <t>-12.4% (±4.4%)</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>153629</v>
+        <v>701076</v>
       </c>
       <c r="X58" t="n">
-        <v>-9.5</v>
+        <v>-6.6</v>
       </c>
       <c r="Y58" t="n">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>-9.5(±8.0)</t>
+          <t>-6.6(±2.8)</t>
         </is>
       </c>
     </row>
@@ -5807,271 +5807,271 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>1655</v>
+        <v>287</v>
       </c>
       <c r="E59" t="n">
-        <v>1858</v>
+        <v>267</v>
       </c>
       <c r="F59" t="n">
-        <v>1699</v>
+        <v>237</v>
       </c>
       <c r="G59" t="n">
-        <v>1698</v>
+        <v>289</v>
       </c>
       <c r="H59" t="n">
-        <v>1608</v>
+        <v>250</v>
       </c>
       <c r="I59" t="n">
-        <v>1552</v>
+        <v>265</v>
       </c>
       <c r="J59" t="n">
-        <v>1725.4</v>
+        <v>266.4</v>
       </c>
       <c r="K59" t="n">
-        <v>103.8</v>
+        <v>17.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.96</v>
       </c>
       <c r="M59" t="n">
-        <v>91</v>
+        <v>15.3</v>
       </c>
       <c r="N59" t="n">
-        <v>1634.4</v>
+        <v>251.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1816.4</v>
+        <v>281.7</v>
       </c>
       <c r="P59" t="n">
-        <v>-70.40000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>91</v>
+        <v>15.3</v>
       </c>
       <c r="R59" t="n">
-        <v>-4.1</v>
+        <v>7.7</v>
       </c>
       <c r="S59" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>1725.4 (±91.0)</t>
+          <t>266.4 (±15.3)</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>-70.4 (±91.0)</t>
+          <t>20.6 (±15.3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>-4.1% (±4.8%)</t>
+          <t>7.7% (±5.8%)</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>3042525</v>
+        <v>620849</v>
       </c>
       <c r="X59" t="n">
-        <v>-2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Y59" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>-2.3(±3.0)</t>
+          <t>3.3(±2.5)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>328</v>
+        <v>600</v>
       </c>
       <c r="E60" t="n">
-        <v>376</v>
+        <v>538</v>
       </c>
       <c r="F60" t="n">
-        <v>373</v>
+        <v>520</v>
       </c>
       <c r="G60" t="n">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="H60" t="n">
-        <v>383</v>
+        <v>560</v>
       </c>
       <c r="I60" t="n">
-        <v>321</v>
+        <v>532</v>
       </c>
       <c r="J60" t="n">
-        <v>374.4</v>
+        <v>538.4</v>
       </c>
       <c r="K60" t="n">
-        <v>22.6</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
         <v>1.96</v>
       </c>
       <c r="M60" t="n">
-        <v>19.8</v>
+        <v>14.9</v>
       </c>
       <c r="N60" t="n">
-        <v>354.6</v>
+        <v>523.5</v>
       </c>
       <c r="O60" t="n">
-        <v>394.2</v>
+        <v>553.3</v>
       </c>
       <c r="P60" t="n">
-        <v>-46.4</v>
+        <v>61.6</v>
       </c>
       <c r="Q60" t="n">
-        <v>19.8</v>
+        <v>14.9</v>
       </c>
       <c r="R60" t="n">
-        <v>-12.4</v>
+        <v>11.4</v>
       </c>
       <c r="S60" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>374.4 (±19.8)</t>
+          <t>538.4 (±14.9)</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>-46.4 (±19.8)</t>
+          <t>61.6 (±14.9)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>-12.4% (±4.4%)</t>
+          <t>11.4% (±3.0%)</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>701076</v>
+        <v>1217932</v>
       </c>
       <c r="X60" t="n">
-        <v>-6.6</v>
+        <v>5.1</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>-6.6(±2.8)</t>
+          <t>5.1(±1.2)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>287</v>
+        <v>878</v>
       </c>
       <c r="E61" t="n">
-        <v>267</v>
+        <v>906</v>
       </c>
       <c r="F61" t="n">
-        <v>237</v>
+        <v>836</v>
       </c>
       <c r="G61" t="n">
-        <v>289</v>
+        <v>861</v>
       </c>
       <c r="H61" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="I61" t="n">
-        <v>265</v>
+        <v>799</v>
       </c>
       <c r="J61" t="n">
-        <v>266.4</v>
+        <v>864.4000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="L61" t="n">
         <v>1.96</v>
       </c>
       <c r="M61" t="n">
-        <v>15.3</v>
+        <v>30.7</v>
       </c>
       <c r="N61" t="n">
-        <v>251.1</v>
+        <v>833.7000000000003</v>
       </c>
       <c r="O61" t="n">
-        <v>281.7</v>
+        <v>895.1000000000004</v>
       </c>
       <c r="P61" t="n">
-        <v>20.6</v>
+        <v>13.6</v>
       </c>
       <c r="Q61" t="n">
-        <v>15.3</v>
+        <v>30.7</v>
       </c>
       <c r="R61" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="S61" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>266.4 (±15.3)</t>
+          <t>864.4 (±30.7)</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20.6 (±15.3)</t>
+          <t>13.6 (±30.7)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>7.7% (±5.8%)</t>
+          <t>1.6% (±3.5%)</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>620849</v>
+        <v>1499416</v>
       </c>
       <c r="X61" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>3.3(±2.5)</t>
+          <t>0.9(±2.1)</t>
         </is>
       </c>
     </row>
@@ -6083,87 +6083,87 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>600</v>
+        <v>1101</v>
       </c>
       <c r="E62" t="n">
-        <v>538</v>
+        <v>1068</v>
       </c>
       <c r="F62" t="n">
-        <v>520</v>
+        <v>1065</v>
       </c>
       <c r="G62" t="n">
-        <v>510</v>
+        <v>962</v>
       </c>
       <c r="H62" t="n">
-        <v>560</v>
+        <v>1032</v>
       </c>
       <c r="I62" t="n">
-        <v>532</v>
+        <v>978</v>
       </c>
       <c r="J62" t="n">
-        <v>538.4</v>
+        <v>1045</v>
       </c>
       <c r="K62" t="n">
-        <v>17</v>
+        <v>43.8</v>
       </c>
       <c r="L62" t="n">
         <v>1.96</v>
       </c>
       <c r="M62" t="n">
-        <v>14.9</v>
+        <v>38.4</v>
       </c>
       <c r="N62" t="n">
-        <v>523.5</v>
+        <v>1006.6</v>
       </c>
       <c r="O62" t="n">
-        <v>553.3</v>
+        <v>1083.400000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>61.6</v>
+        <v>56</v>
       </c>
       <c r="Q62" t="n">
-        <v>14.9</v>
+        <v>38.4</v>
       </c>
       <c r="R62" t="n">
-        <v>11.4</v>
+        <v>5.4</v>
       </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>538.4 (±14.9)</t>
+          <t>1045.0 (±38.4)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>61.6 (±14.9)</t>
+          <t>56.0 (±38.4)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>11.4% (±3.0%)</t>
+          <t>5.4% (±3.8%)</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>1217932</v>
+        <v>956388</v>
       </c>
       <c r="X62" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>5.1(±1.2)</t>
+          <t>5.9(±4.0)</t>
         </is>
       </c>
     </row>
@@ -6175,87 +6175,87 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>878</v>
+        <v>343</v>
       </c>
       <c r="E63" t="n">
-        <v>906</v>
+        <v>391</v>
       </c>
       <c r="F63" t="n">
-        <v>836</v>
+        <v>333</v>
       </c>
       <c r="G63" t="n">
-        <v>861</v>
+        <v>343</v>
       </c>
       <c r="H63" t="n">
-        <v>840</v>
+        <v>344</v>
       </c>
       <c r="I63" t="n">
-        <v>799</v>
+        <v>348</v>
       </c>
       <c r="J63" t="n">
-        <v>864.4000000000003</v>
+        <v>354.1999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>35</v>
+        <v>20.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.96</v>
       </c>
       <c r="M63" t="n">
-        <v>30.7</v>
+        <v>17.7</v>
       </c>
       <c r="N63" t="n">
-        <v>833.7000000000003</v>
+        <v>336.4999999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>895.1000000000004</v>
+        <v>371.8999999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>13.6</v>
+        <v>-11.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>30.7</v>
+        <v>17.7</v>
       </c>
       <c r="R63" t="n">
-        <v>1.6</v>
+        <v>-3.2</v>
       </c>
       <c r="S63" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>864.4 (±30.7)</t>
+          <t>354.2 (±17.7)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>13.6 (±30.7)</t>
+          <t>-11.2 (±17.7)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>1.6% (±3.5%)</t>
+          <t>-3.2% (±4.6%)</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>1499416</v>
+        <v>536215</v>
       </c>
       <c r="X63" t="n">
-        <v>0.9</v>
+        <v>-2.1</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>0.9(±2.1)</t>
+          <t>-2.1(±3.3)</t>
         </is>
       </c>
     </row>
@@ -6267,87 +6267,87 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>1101</v>
+        <v>54</v>
       </c>
       <c r="E64" t="n">
-        <v>1068</v>
+        <v>60</v>
       </c>
       <c r="F64" t="n">
-        <v>1065</v>
+        <v>46</v>
       </c>
       <c r="G64" t="n">
-        <v>962</v>
+        <v>50</v>
       </c>
       <c r="H64" t="n">
-        <v>1032</v>
+        <v>58</v>
       </c>
       <c r="I64" t="n">
-        <v>978</v>
+        <v>68</v>
       </c>
       <c r="J64" t="n">
-        <v>1045</v>
+        <v>57.2</v>
       </c>
       <c r="K64" t="n">
-        <v>43.8</v>
+        <v>7.7</v>
       </c>
       <c r="L64" t="n">
         <v>1.96</v>
       </c>
       <c r="M64" t="n">
-        <v>38.4</v>
+        <v>6.7</v>
       </c>
       <c r="N64" t="n">
-        <v>1006.6</v>
+        <v>50.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1083.400000000001</v>
+        <v>63.90000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>56</v>
+        <v>-3.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>38.4</v>
+        <v>6.7</v>
       </c>
       <c r="R64" t="n">
-        <v>5.4</v>
+        <v>-5.6</v>
       </c>
       <c r="S64" t="n">
-        <v>3.8</v>
+        <v>9.9</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>1045.0 (±38.4)</t>
+          <t>57.2 (±6.7)</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>56.0 (±38.4)</t>
+          <t>-3.2 (±6.7)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>5.4% (±3.8%)</t>
+          <t>-5.6% (±9.9%)</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>956388</v>
+        <v>143651</v>
       </c>
       <c r="X64" t="n">
-        <v>5.9</v>
+        <v>-2.2</v>
       </c>
       <c r="Y64" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>5.9(±4.0)</t>
+          <t>-2.2(±4.6)</t>
         </is>
       </c>
     </row>
@@ -6359,87 +6359,87 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>343</v>
+        <v>1034</v>
       </c>
       <c r="E65" t="n">
-        <v>391</v>
+        <v>1066</v>
       </c>
       <c r="F65" t="n">
-        <v>333</v>
+        <v>983</v>
       </c>
       <c r="G65" t="n">
-        <v>343</v>
+        <v>953</v>
       </c>
       <c r="H65" t="n">
-        <v>344</v>
+        <v>991</v>
       </c>
       <c r="I65" t="n">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="J65" t="n">
-        <v>354.1999999999999</v>
+        <v>1014</v>
       </c>
       <c r="K65" t="n">
-        <v>20.2</v>
+        <v>43.7</v>
       </c>
       <c r="L65" t="n">
         <v>1.96</v>
       </c>
       <c r="M65" t="n">
-        <v>17.7</v>
+        <v>38.3</v>
       </c>
       <c r="N65" t="n">
-        <v>336.4999999999999</v>
+        <v>975.7000000000003</v>
       </c>
       <c r="O65" t="n">
-        <v>371.8999999999999</v>
+        <v>1052.3</v>
       </c>
       <c r="P65" t="n">
-        <v>-11.2</v>
+        <v>20</v>
       </c>
       <c r="Q65" t="n">
-        <v>17.7</v>
+        <v>38.3</v>
       </c>
       <c r="R65" t="n">
-        <v>-3.2</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>354.2 (±17.7)</t>
+          <t>1014.0 (±38.3)</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>-11.2 (±17.7)</t>
+          <t>20.0 (±38.3)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>-3.2% (±4.6%)</t>
+          <t>2.0% (±3.7%)</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>536215</v>
+        <v>1485125</v>
       </c>
       <c r="X65" t="n">
-        <v>-2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y65" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>-2.1(±3.3)</t>
+          <t>1.3(±2.6)</t>
         </is>
       </c>
     </row>
@@ -6451,87 +6451,87 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="E66" t="n">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="F66" t="n">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="G66" t="n">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="H66" t="n">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="I66" t="n">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="J66" t="n">
-        <v>57.2</v>
+        <v>312.6</v>
       </c>
       <c r="K66" t="n">
-        <v>7.7</v>
+        <v>14.9</v>
       </c>
       <c r="L66" t="n">
         <v>1.96</v>
       </c>
       <c r="M66" t="n">
-        <v>6.7</v>
+        <v>13.1</v>
       </c>
       <c r="N66" t="n">
-        <v>50.5</v>
+        <v>299.5</v>
       </c>
       <c r="O66" t="n">
-        <v>63.90000000000001</v>
+        <v>325.7</v>
       </c>
       <c r="P66" t="n">
-        <v>-3.2</v>
+        <v>4.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>6.7</v>
+        <v>13.1</v>
       </c>
       <c r="R66" t="n">
-        <v>-5.6</v>
+        <v>1.4</v>
       </c>
       <c r="S66" t="n">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>57.2 (±6.7)</t>
+          <t>312.6 (±13.1)</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>-3.2 (±6.7)</t>
+          <t>4.4 (±13.1)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>-5.6% (±9.9%)</t>
+          <t>1.4% (±4.1%)</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>143651</v>
+        <v>686808</v>
       </c>
       <c r="X66" t="n">
-        <v>-2.2</v>
+        <v>0.6</v>
       </c>
       <c r="Y66" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>-2.2(±4.6)</t>
+          <t>0.6(±1.9)</t>
         </is>
       </c>
     </row>
@@ -6543,87 +6543,87 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>1034</v>
+        <v>201</v>
       </c>
       <c r="E67" t="n">
-        <v>1066</v>
+        <v>232</v>
       </c>
       <c r="F67" t="n">
-        <v>983</v>
+        <v>249</v>
       </c>
       <c r="G67" t="n">
-        <v>953</v>
+        <v>191</v>
       </c>
       <c r="H67" t="n">
-        <v>991</v>
+        <v>176</v>
       </c>
       <c r="I67" t="n">
-        <v>941</v>
+        <v>163</v>
       </c>
       <c r="J67" t="n">
-        <v>1014</v>
+        <v>203</v>
       </c>
       <c r="K67" t="n">
-        <v>43.7</v>
+        <v>32.9</v>
       </c>
       <c r="L67" t="n">
         <v>1.96</v>
       </c>
       <c r="M67" t="n">
-        <v>38.3</v>
+        <v>28.8</v>
       </c>
       <c r="N67" t="n">
-        <v>975.7000000000003</v>
+        <v>174.2</v>
       </c>
       <c r="O67" t="n">
-        <v>1052.3</v>
+        <v>231.8</v>
       </c>
       <c r="P67" t="n">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="Q67" t="n">
-        <v>38.3</v>
+        <v>28.8</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S67" t="n">
-        <v>3.7</v>
+        <v>12.3</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>1014.0 (±38.3)</t>
+          <t>203.0 (±28.8)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20.0 (±38.3)</t>
+          <t>-2.0 (±28.8)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>2.0% (±3.7%)</t>
+          <t>-1.0% (±12.3%)</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>1485125</v>
+        <v>196352</v>
       </c>
       <c r="X67" t="n">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.6</v>
+        <v>14.6</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>1.3(±2.6)</t>
+          <t>-1.0(±14.6)</t>
         </is>
       </c>
     </row>
@@ -6635,87 +6635,87 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="F68" t="n">
-        <v>308</v>
+        <v>447</v>
       </c>
       <c r="G68" t="n">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="H68" t="n">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="I68" t="n">
-        <v>297</v>
+        <v>460</v>
       </c>
       <c r="J68" t="n">
-        <v>312.6</v>
+        <v>457.4</v>
       </c>
       <c r="K68" t="n">
-        <v>14.9</v>
+        <v>10.1</v>
       </c>
       <c r="L68" t="n">
         <v>1.96</v>
       </c>
       <c r="M68" t="n">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="N68" t="n">
-        <v>299.5</v>
+        <v>448.5000000000001</v>
       </c>
       <c r="O68" t="n">
-        <v>325.7</v>
+        <v>466.3</v>
       </c>
       <c r="P68" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="R68" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>312.6 (±13.1)</t>
+          <t>457.4 (±8.9)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>4.4 (±13.1)</t>
+          <t>4.6 (±8.9)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>1.4% (±4.1%)</t>
+          <t>1.0% (±1.9%)</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>686808</v>
+        <v>711550</v>
       </c>
       <c r="X68" t="n">
         <v>0.6</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>0.6(±1.9)</t>
+          <t>0.6(±1.3)</t>
         </is>
       </c>
     </row>
@@ -6727,87 +6727,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>201</v>
+        <v>4967</v>
       </c>
       <c r="E69" t="n">
-        <v>232</v>
+        <v>5047</v>
       </c>
       <c r="F69" t="n">
-        <v>249</v>
+        <v>4843</v>
       </c>
       <c r="G69" t="n">
-        <v>191</v>
+        <v>4824</v>
       </c>
       <c r="H69" t="n">
-        <v>176</v>
+        <v>4954</v>
       </c>
       <c r="I69" t="n">
-        <v>163</v>
+        <v>4927</v>
       </c>
       <c r="J69" t="n">
-        <v>203</v>
+        <v>5007.000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>32.9</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L69" t="n">
         <v>1.96</v>
       </c>
       <c r="M69" t="n">
-        <v>28.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>174.2</v>
+        <v>4936.400000000001</v>
       </c>
       <c r="O69" t="n">
-        <v>231.8</v>
+        <v>5077.600000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="Q69" t="n">
-        <v>28.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="R69" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="S69" t="n">
-        <v>12.3</v>
+        <v>1.4</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>203.0 (±28.8)</t>
+          <t>5007.0 (±70.6)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>-2.0 (±28.8)</t>
+          <t>-40.0 (±70.6)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>-1.0% (±12.3%)</t>
+          <t>-0.8% (±1.4%)</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>196352</v>
+        <v>8329503</v>
       </c>
       <c r="X69" t="n">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>-1.0(±14.6)</t>
+          <t>-0.5(±0.9)</t>
         </is>
       </c>
     </row>
@@ -6819,87 +6819,87 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>462</v>
+        <v>728</v>
       </c>
       <c r="E70" t="n">
-        <v>447</v>
+        <v>895</v>
       </c>
       <c r="F70" t="n">
-        <v>447</v>
+        <v>820</v>
       </c>
       <c r="G70" t="n">
-        <v>440</v>
+        <v>753</v>
       </c>
       <c r="H70" t="n">
-        <v>429</v>
+        <v>827</v>
       </c>
       <c r="I70" t="n">
-        <v>460</v>
+        <v>709</v>
       </c>
       <c r="J70" t="n">
-        <v>457.4</v>
+        <v>815.1999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>10.1</v>
+        <v>64.3</v>
       </c>
       <c r="L70" t="n">
         <v>1.96</v>
       </c>
       <c r="M70" t="n">
-        <v>8.9</v>
+        <v>56.4</v>
       </c>
       <c r="N70" t="n">
-        <v>448.5000000000001</v>
+        <v>758.7999999999998</v>
       </c>
       <c r="O70" t="n">
-        <v>466.3</v>
+        <v>871.5999999999998</v>
       </c>
       <c r="P70" t="n">
-        <v>4.6</v>
+        <v>-87.2</v>
       </c>
       <c r="Q70" t="n">
-        <v>8.9</v>
+        <v>56.4</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>-10.7</v>
       </c>
       <c r="S70" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>457.4 (±8.9)</t>
+          <t>815.2 (±56.4)</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>4.6 (±8.9)</t>
+          <t>-87.2 (±56.4)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>1.0% (±1.9%)</t>
+          <t>-10.7% (±5.8%)</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>711550</v>
+        <v>1333233</v>
       </c>
       <c r="X70" t="n">
-        <v>0.6</v>
+        <v>-6.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0.6(±1.3)</t>
+          <t>-6.5(±4.2)</t>
         </is>
       </c>
     </row>
@@ -6911,87 +6911,87 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>4967</v>
+        <v>1005</v>
       </c>
       <c r="E71" t="n">
-        <v>5047</v>
+        <v>1120</v>
       </c>
       <c r="F71" t="n">
-        <v>4843</v>
+        <v>994</v>
       </c>
       <c r="G71" t="n">
-        <v>4824</v>
+        <v>1054</v>
       </c>
       <c r="H71" t="n">
-        <v>4954</v>
+        <v>941</v>
       </c>
       <c r="I71" t="n">
-        <v>4927</v>
+        <v>917</v>
       </c>
       <c r="J71" t="n">
-        <v>5007.000000000001</v>
+        <v>1021.2</v>
       </c>
       <c r="K71" t="n">
-        <v>80.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="L71" t="n">
         <v>1.96</v>
       </c>
       <c r="M71" t="n">
-        <v>70.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="N71" t="n">
-        <v>4936.400000000001</v>
+        <v>956.0999999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>5077.600000000001</v>
+        <v>1086.3</v>
       </c>
       <c r="P71" t="n">
-        <v>-40</v>
+        <v>-16.2</v>
       </c>
       <c r="Q71" t="n">
-        <v>70.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="S71" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>5007.0 (±70.6)</t>
+          <t>1021.2 (±65.1)</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>-40.0 (±70.6)</t>
+          <t>-16.2 (±65.1)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>-0.8% (±1.4%)</t>
+          <t>-1.6% (±5.9%)</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>8329503</v>
+        <v>1271926</v>
       </c>
       <c r="X71" t="n">
-        <v>-0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>-0.5(±0.9)</t>
+          <t>-1.3(±5.1)</t>
         </is>
       </c>
     </row>
@@ -7003,87 +7003,87 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>728</v>
+        <v>36</v>
       </c>
       <c r="E72" t="n">
-        <v>895</v>
+        <v>22</v>
       </c>
       <c r="F72" t="n">
-        <v>820</v>
+        <v>33</v>
       </c>
       <c r="G72" t="n">
-        <v>753</v>
+        <v>41</v>
       </c>
       <c r="H72" t="n">
-        <v>827</v>
+        <v>37</v>
       </c>
       <c r="I72" t="n">
-        <v>709</v>
+        <v>30</v>
       </c>
       <c r="J72" t="n">
-        <v>815.1999999999998</v>
+        <v>32.59999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>64.3</v>
+        <v>6.5</v>
       </c>
       <c r="L72" t="n">
         <v>1.96</v>
       </c>
       <c r="M72" t="n">
-        <v>56.4</v>
+        <v>5.7</v>
       </c>
       <c r="N72" t="n">
-        <v>758.7999999999998</v>
+        <v>26.9</v>
       </c>
       <c r="O72" t="n">
-        <v>871.5999999999998</v>
+        <v>38.3</v>
       </c>
       <c r="P72" t="n">
-        <v>-87.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>56.4</v>
+        <v>5.7</v>
       </c>
       <c r="R72" t="n">
-        <v>-10.7</v>
+        <v>10.4</v>
       </c>
       <c r="S72" t="n">
-        <v>5.8</v>
+        <v>16.4</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>815.2 (±56.4)</t>
+          <t>32.6 (±5.7)</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>-87.2 (±56.4)</t>
+          <t>3.4 (±5.7)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>-10.7% (±5.8%)</t>
+          <t>10.4% (±16.4%)</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>1333233</v>
+        <v>53461</v>
       </c>
       <c r="X72" t="n">
-        <v>-6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y72" t="n">
-        <v>4.2</v>
+        <v>10.6</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>-6.5(±4.2)</t>
+          <t>6.4(±10.6)</t>
         </is>
       </c>
     </row>
@@ -7095,87 +7095,87 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>1005</v>
+        <v>2659</v>
       </c>
       <c r="E73" t="n">
-        <v>1120</v>
+        <v>3198</v>
       </c>
       <c r="F73" t="n">
-        <v>994</v>
+        <v>3044</v>
       </c>
       <c r="G73" t="n">
-        <v>1054</v>
+        <v>2865</v>
       </c>
       <c r="H73" t="n">
-        <v>941</v>
+        <v>2837</v>
       </c>
       <c r="I73" t="n">
-        <v>917</v>
+        <v>2618</v>
       </c>
       <c r="J73" t="n">
-        <v>1021.2</v>
+        <v>2976.399999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>74.3</v>
+        <v>196.7</v>
       </c>
       <c r="L73" t="n">
         <v>1.96</v>
       </c>
       <c r="M73" t="n">
-        <v>65.09999999999999</v>
+        <v>172.4</v>
       </c>
       <c r="N73" t="n">
-        <v>956.0999999999999</v>
+        <v>2803.999999999999</v>
       </c>
       <c r="O73" t="n">
-        <v>1086.3</v>
+        <v>3148.799999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>-16.2</v>
+        <v>-317.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>65.09999999999999</v>
+        <v>172.4</v>
       </c>
       <c r="R73" t="n">
-        <v>-1.6</v>
+        <v>-10.7</v>
       </c>
       <c r="S73" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>1021.2 (±65.1)</t>
+          <t>2976.4 (±172.4)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>-16.2 (±65.1)</t>
+          <t>-317.4 (±172.4)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>-1.6% (±5.9%)</t>
+          <t>-10.7% (±4.9%)</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>1271926</v>
+        <v>6854632</v>
       </c>
       <c r="X73" t="n">
-        <v>-1.3</v>
+        <v>-4.6</v>
       </c>
       <c r="Y73" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>-1.3(±5.1)</t>
+          <t>-4.6(±2.5)</t>
         </is>
       </c>
     </row>
@@ -7187,87 +7187,87 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="E74" t="n">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="F74" t="n">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="G74" t="n">
-        <v>41</v>
+        <v>480</v>
       </c>
       <c r="H74" t="n">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="I74" t="n">
-        <v>30</v>
+        <v>359</v>
       </c>
       <c r="J74" t="n">
-        <v>32.59999999999999</v>
+        <v>450.9999999999999</v>
       </c>
       <c r="K74" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M74" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="N74" t="n">
+        <v>410.1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>491.8999999999999</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-96</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="S74" t="n">
         <v>6.5</v>
       </c>
-      <c r="L74" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M74" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="N74" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="O74" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="P74" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R74" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="S74" t="n">
-        <v>16.4</v>
-      </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>32.6 (±5.7)</t>
+          <t>451.0 (±40.9)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>3.4 (±5.7)</t>
+          <t>-96.0 (±40.9)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>10.4% (±16.4%)</t>
+          <t>-21.3% (±6.5%)</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>53461</v>
+        <v>268173</v>
       </c>
       <c r="X74" t="n">
-        <v>6.4</v>
+        <v>-35.8</v>
       </c>
       <c r="Y74" t="n">
-        <v>10.6</v>
+        <v>15.3</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>6.4(±10.6)</t>
+          <t>-35.8(±15.3)</t>
         </is>
       </c>
     </row>
@@ -7279,87 +7279,87 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>2659</v>
+        <v>524</v>
       </c>
       <c r="E75" t="n">
-        <v>3198</v>
+        <v>730</v>
       </c>
       <c r="F75" t="n">
-        <v>3044</v>
+        <v>644</v>
       </c>
       <c r="G75" t="n">
-        <v>2865</v>
+        <v>563</v>
       </c>
       <c r="H75" t="n">
-        <v>2837</v>
+        <v>582</v>
       </c>
       <c r="I75" t="n">
-        <v>2618</v>
+        <v>521</v>
       </c>
       <c r="J75" t="n">
-        <v>2976.399999999999</v>
+        <v>627.2000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>196.7</v>
+        <v>72.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.96</v>
       </c>
       <c r="M75" t="n">
-        <v>172.4</v>
+        <v>63.7</v>
       </c>
       <c r="N75" t="n">
-        <v>2803.999999999999</v>
+        <v>563.5000000000001</v>
       </c>
       <c r="O75" t="n">
-        <v>3148.799999999999</v>
+        <v>690.9000000000002</v>
       </c>
       <c r="P75" t="n">
-        <v>-317.4</v>
+        <v>-103.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>172.4</v>
+        <v>63.7</v>
       </c>
       <c r="R75" t="n">
-        <v>-10.7</v>
+        <v>-16.5</v>
       </c>
       <c r="S75" t="n">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>2976.4 (±172.4)</t>
+          <t>627.2 (±63.7)</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>-317.4 (±172.4)</t>
+          <t>-103.2 (±63.7)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>-10.7% (±4.9%)</t>
+          <t>-16.5% (±7.7%)</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>6854632</v>
+        <v>359239</v>
       </c>
       <c r="X75" t="n">
-        <v>-4.6</v>
+        <v>-28.7</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.5</v>
+        <v>17.7</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>-4.6(±2.5)</t>
+          <t>-28.7(±17.7)</t>
         </is>
       </c>
     </row>
@@ -7371,87 +7371,87 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="E76" t="n">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="F76" t="n">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="G76" t="n">
-        <v>480</v>
+        <v>37</v>
       </c>
       <c r="H76" t="n">
-        <v>433</v>
+        <v>36</v>
       </c>
       <c r="I76" t="n">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="J76" t="n">
-        <v>450.9999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="K76" t="n">
-        <v>46.7</v>
+        <v>2.2</v>
       </c>
       <c r="L76" t="n">
         <v>1.96</v>
       </c>
       <c r="M76" t="n">
-        <v>40.9</v>
+        <v>1.9</v>
       </c>
       <c r="N76" t="n">
-        <v>410.1</v>
+        <v>34.3</v>
       </c>
       <c r="O76" t="n">
-        <v>491.8999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="P76" t="n">
-        <v>-96</v>
+        <v>-1.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>40.9</v>
+        <v>1.9</v>
       </c>
       <c r="R76" t="n">
-        <v>-21.3</v>
+        <v>-3.3</v>
       </c>
       <c r="S76" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>451.0 (±40.9)</t>
+          <t>36.2 (±1.9)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>-96.0 (±40.9)</t>
+          <t>-1.2 (±1.9)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>-21.3% (±6.5%)</t>
+          <t>-3.3% (±4.8%)</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>268173</v>
+        <v>98584</v>
       </c>
       <c r="X76" t="n">
-        <v>-35.8</v>
+        <v>-1.2</v>
       </c>
       <c r="Y76" t="n">
-        <v>15.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>-35.8(±15.3)</t>
+          <t>-1.2(±1.9)</t>
         </is>
       </c>
     </row>
@@ -7463,87 +7463,87 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J77" t="n">
-        <v>1.6</v>
+        <v>36.2</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="N77" t="n">
-        <v>0.8999999999999999</v>
+        <v>32.59999999999999</v>
       </c>
       <c r="O77" t="n">
-        <v>2.3</v>
+        <v>39.8</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="R77" t="n">
-        <v>-37.5</v>
+        <v>-3.3</v>
       </c>
       <c r="S77" t="n">
-        <v>19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>1.6 (±0.7)</t>
+          <t>36.2 (±3.6)</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>-0.6 (±0.7)</t>
+          <t>-1.2 (±3.6)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>-37.5% (±19.0%)</t>
+          <t>-3.3% (±8.8%)</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>4967</v>
+        <v>88901</v>
       </c>
       <c r="X77" t="n">
-        <v>-12.1</v>
+        <v>-1.3</v>
       </c>
       <c r="Y77" t="n">
-        <v>14.1</v>
+        <v>4</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>-12.1(±14.1)</t>
+          <t>-1.3(±4.0)</t>
         </is>
       </c>
     </row>
@@ -7555,87 +7555,87 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>524</v>
+        <v>72</v>
       </c>
       <c r="E78" t="n">
-        <v>730</v>
+        <v>61</v>
       </c>
       <c r="F78" t="n">
-        <v>644</v>
+        <v>62</v>
       </c>
       <c r="G78" t="n">
-        <v>563</v>
+        <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>582</v>
+        <v>55</v>
       </c>
       <c r="I78" t="n">
-        <v>521</v>
+        <v>73</v>
       </c>
       <c r="J78" t="n">
-        <v>627.2000000000002</v>
+        <v>67.19999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>72.7</v>
+        <v>8.1</v>
       </c>
       <c r="L78" t="n">
         <v>1.96</v>
       </c>
       <c r="M78" t="n">
-        <v>63.7</v>
+        <v>7.1</v>
       </c>
       <c r="N78" t="n">
-        <v>563.5000000000001</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="O78" t="n">
-        <v>690.9000000000002</v>
+        <v>74.29999999999998</v>
       </c>
       <c r="P78" t="n">
-        <v>-103.2</v>
+        <v>4.8</v>
       </c>
       <c r="Q78" t="n">
-        <v>63.7</v>
+        <v>7.1</v>
       </c>
       <c r="R78" t="n">
-        <v>-16.5</v>
+        <v>7.1</v>
       </c>
       <c r="S78" t="n">
-        <v>7.7</v>
+        <v>10.2</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>627.2 (±63.7)</t>
+          <t>67.2 (±7.1)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>-103.2 (±63.7)</t>
+          <t>4.8 (±7.1)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>-16.5% (±7.7%)</t>
+          <t>7.1% (±10.2%)</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>359239</v>
+        <v>89476</v>
       </c>
       <c r="X78" t="n">
-        <v>-28.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y78" t="n">
-        <v>17.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>-28.7(±17.7)</t>
+          <t>5.4(±7.9)</t>
         </is>
       </c>
     </row>
@@ -7647,87 +7647,87 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>35</v>
+        <v>977</v>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>862</v>
       </c>
       <c r="F79" t="n">
-        <v>34</v>
+        <v>858</v>
       </c>
       <c r="G79" t="n">
-        <v>37</v>
+        <v>869</v>
       </c>
       <c r="H79" t="n">
-        <v>36</v>
+        <v>891</v>
       </c>
       <c r="I79" t="n">
-        <v>40</v>
+        <v>867</v>
       </c>
       <c r="J79" t="n">
-        <v>36.2</v>
+        <v>885.4000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>2.2</v>
+        <v>11.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.96</v>
       </c>
       <c r="M79" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="N79" t="n">
-        <v>34.3</v>
+        <v>875.3000000000001</v>
       </c>
       <c r="O79" t="n">
-        <v>38.1</v>
+        <v>895.5000000000001</v>
       </c>
       <c r="P79" t="n">
-        <v>-1.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="R79" t="n">
-        <v>-3.3</v>
+        <v>10.3</v>
       </c>
       <c r="S79" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>36.2 (±1.9)</t>
+          <t>885.4 (±10.1)</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>-1.2 (±1.9)</t>
+          <t>91.6 (±10.1)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>-3.3% (±4.8%)</t>
+          <t>10.3% (±1.2%)</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>98584</v>
+        <v>2147931</v>
       </c>
       <c r="X79" t="n">
-        <v>-1.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>-1.2(±1.9)</t>
+          <t>4.3(±0.4)</t>
         </is>
       </c>
     </row>
@@ -7739,87 +7739,87 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="E80" t="n">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="F80" t="n">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="G80" t="n">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="H80" t="n">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I80" t="n">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="J80" t="n">
-        <v>36.2</v>
+        <v>342.4000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>4.1</v>
+        <v>18.9</v>
       </c>
       <c r="L80" t="n">
         <v>1.96</v>
       </c>
       <c r="M80" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="N80" t="n">
-        <v>32.59999999999999</v>
+        <v>325.8000000000001</v>
       </c>
       <c r="O80" t="n">
-        <v>39.8</v>
+        <v>359.0000000000001</v>
       </c>
       <c r="P80" t="n">
-        <v>-1.2</v>
+        <v>-8.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="R80" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="S80" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>36.2 (±3.6)</t>
+          <t>342.4 (±16.6)</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>-1.2 (±3.6)</t>
+          <t>-8.4 (±16.6)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>-3.3% (±8.8%)</t>
+          <t>-2.5% (±4.5%)</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>88901</v>
+        <v>730547</v>
       </c>
       <c r="X80" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="Y80" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>-1.3(±4.0)</t>
+          <t>-1.1(±2.2)</t>
         </is>
       </c>
     </row>
@@ -7831,87 +7831,87 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>72</v>
+        <v>6409</v>
       </c>
       <c r="E81" t="n">
-        <v>61</v>
+        <v>5764</v>
       </c>
       <c r="F81" t="n">
-        <v>62</v>
+        <v>5663</v>
       </c>
       <c r="G81" t="n">
-        <v>77</v>
+        <v>5692</v>
       </c>
       <c r="H81" t="n">
-        <v>55</v>
+        <v>5773</v>
       </c>
       <c r="I81" t="n">
-        <v>73</v>
+        <v>5763</v>
       </c>
       <c r="J81" t="n">
-        <v>67.19999999999999</v>
+        <v>5843</v>
       </c>
       <c r="K81" t="n">
-        <v>8.1</v>
+        <v>44.8</v>
       </c>
       <c r="L81" t="n">
         <v>1.96</v>
       </c>
       <c r="M81" t="n">
-        <v>7.1</v>
+        <v>39.3</v>
       </c>
       <c r="N81" t="n">
-        <v>60.09999999999999</v>
+        <v>5803.7</v>
       </c>
       <c r="O81" t="n">
-        <v>74.29999999999998</v>
+        <v>5882.3</v>
       </c>
       <c r="P81" t="n">
-        <v>4.8</v>
+        <v>566</v>
       </c>
       <c r="Q81" t="n">
-        <v>7.1</v>
+        <v>39.3</v>
       </c>
       <c r="R81" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S81" t="n">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>67.2 (±7.1)</t>
+          <t>5843.0 (±39.3)</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>4.8 (±7.1)</t>
+          <t>566.0 (±39.3)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>7.1% (±10.2%)</t>
+          <t>9.7% (±0.7%)</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>89476</v>
+        <v>6009458</v>
       </c>
       <c r="X81" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="Y81" t="n">
-        <v>7.9</v>
+        <v>0.7</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>5.4(±7.9)</t>
+          <t>9.4(±0.7)</t>
         </is>
       </c>
     </row>
@@ -7923,87 +7923,87 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>977</v>
+        <v>703</v>
       </c>
       <c r="E82" t="n">
-        <v>862</v>
+        <v>780</v>
       </c>
       <c r="F82" t="n">
-        <v>858</v>
+        <v>685</v>
       </c>
       <c r="G82" t="n">
-        <v>869</v>
+        <v>745</v>
       </c>
       <c r="H82" t="n">
-        <v>891</v>
+        <v>671</v>
       </c>
       <c r="I82" t="n">
-        <v>867</v>
+        <v>670</v>
       </c>
       <c r="J82" t="n">
-        <v>885.4000000000001</v>
+        <v>726.2000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>11.5</v>
+        <v>44.4</v>
       </c>
       <c r="L82" t="n">
         <v>1.96</v>
       </c>
       <c r="M82" t="n">
-        <v>10.1</v>
+        <v>38.9</v>
       </c>
       <c r="N82" t="n">
-        <v>875.3000000000001</v>
+        <v>687.3000000000002</v>
       </c>
       <c r="O82" t="n">
-        <v>895.5000000000001</v>
+        <v>765.1000000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>91.59999999999999</v>
+        <v>-23.2</v>
       </c>
       <c r="Q82" t="n">
-        <v>10.1</v>
+        <v>38.9</v>
       </c>
       <c r="R82" t="n">
-        <v>10.3</v>
+        <v>-3.2</v>
       </c>
       <c r="S82" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>885.4 (±10.1)</t>
+          <t>726.2 (±38.9)</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>91.6 (±10.1)</t>
+          <t>-23.2 (±38.9)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>10.3% (±1.2%)</t>
+          <t>-3.2% (±4.9%)</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>2147931</v>
+        <v>1239016</v>
       </c>
       <c r="X82" t="n">
-        <v>4.3</v>
+        <v>-1.9</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>4.3(±0.4)</t>
+          <t>-1.9(±3.2)</t>
         </is>
       </c>
     </row>
@@ -8015,87 +8015,87 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>2020</v>
       </c>
       <c r="D83" t="n">
-        <v>332</v>
+        <v>2801</v>
       </c>
       <c r="E83" t="n">
-        <v>335</v>
+        <v>2948</v>
       </c>
       <c r="F83" t="n">
-        <v>359</v>
+        <v>2703</v>
       </c>
       <c r="G83" t="n">
-        <v>303</v>
+        <v>2662</v>
       </c>
       <c r="H83" t="n">
-        <v>347</v>
+        <v>2579</v>
       </c>
       <c r="I83" t="n">
-        <v>328</v>
+        <v>2495</v>
       </c>
       <c r="J83" t="n">
-        <v>342.4000000000001</v>
+        <v>2751.8</v>
       </c>
       <c r="K83" t="n">
-        <v>18.9</v>
+        <v>153</v>
       </c>
       <c r="L83" t="n">
         <v>1.96</v>
       </c>
       <c r="M83" t="n">
-        <v>16.6</v>
+        <v>134.1</v>
       </c>
       <c r="N83" t="n">
-        <v>325.8000000000001</v>
+        <v>2617.7</v>
       </c>
       <c r="O83" t="n">
-        <v>359.0000000000001</v>
+        <v>2885.9</v>
       </c>
       <c r="P83" t="n">
-        <v>-10.4</v>
+        <v>49.2</v>
       </c>
       <c r="Q83" t="n">
-        <v>16.6</v>
+        <v>134.1</v>
       </c>
       <c r="R83" t="n">
-        <v>-3</v>
+        <v>1.8</v>
       </c>
       <c r="S83" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>342.4 (±16.6)</t>
+          <t>2751.8 (±134.1)</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-10.4 (±16.6)</t>
+          <t>49.2 (±134.1)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>-3.0% (±4.5%)</t>
+          <t>1.8% (±4.7%)</t>
         </is>
       </c>
       <c r="W83" t="n">
-        <v>730547</v>
+        <v>2694828</v>
       </c>
       <c r="X83" t="n">
-        <v>-1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Y83" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>-1.4(±2.2)</t>
+          <t>1.8(±5.0)</t>
         </is>
       </c>
     </row>
@@ -8107,87 +8107,87 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>6409</v>
+        <v>691</v>
       </c>
       <c r="E84" t="n">
-        <v>5764</v>
+        <v>731</v>
       </c>
       <c r="F84" t="n">
-        <v>5663</v>
+        <v>693</v>
       </c>
       <c r="G84" t="n">
-        <v>5692</v>
+        <v>651</v>
       </c>
       <c r="H84" t="n">
-        <v>5773</v>
+        <v>647</v>
       </c>
       <c r="I84" t="n">
-        <v>5763</v>
+        <v>679</v>
       </c>
       <c r="J84" t="n">
-        <v>5843</v>
+        <v>695.4</v>
       </c>
       <c r="K84" t="n">
-        <v>44.8</v>
+        <v>30.7</v>
       </c>
       <c r="L84" t="n">
         <v>1.96</v>
       </c>
       <c r="M84" t="n">
-        <v>39.3</v>
+        <v>26.9</v>
       </c>
       <c r="N84" t="n">
-        <v>5803.7</v>
+        <v>668.5</v>
       </c>
       <c r="O84" t="n">
-        <v>5882.3</v>
+        <v>722.3</v>
       </c>
       <c r="P84" t="n">
-        <v>566</v>
+        <v>-4.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>39.3</v>
+        <v>26.9</v>
       </c>
       <c r="R84" t="n">
-        <v>9.699999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="S84" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>5843.0 (±39.3)</t>
+          <t>695.4 (±26.9)</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>566.0 (±39.3)</t>
+          <t>-4.4 (±26.9)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>9.7% (±0.7%)</t>
+          <t>-0.6% (±3.7%)</t>
         </is>
       </c>
       <c r="W84" t="n">
-        <v>6009458</v>
+        <v>847471</v>
       </c>
       <c r="X84" t="n">
-        <v>9.4</v>
+        <v>-0.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>9.4(±0.7)</t>
+          <t>-0.5(±3.2)</t>
         </is>
       </c>
     </row>
@@ -8199,87 +8199,87 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>2020</v>
       </c>
       <c r="D85" t="n">
-        <v>703</v>
+        <v>142</v>
       </c>
       <c r="E85" t="n">
-        <v>780</v>
+        <v>186</v>
       </c>
       <c r="F85" t="n">
-        <v>685</v>
+        <v>173</v>
       </c>
       <c r="G85" t="n">
-        <v>745</v>
+        <v>136</v>
       </c>
       <c r="H85" t="n">
-        <v>671</v>
+        <v>146</v>
       </c>
       <c r="I85" t="n">
-        <v>670</v>
+        <v>162</v>
       </c>
       <c r="J85" t="n">
-        <v>726.2000000000002</v>
+        <v>166.2</v>
       </c>
       <c r="K85" t="n">
-        <v>44.4</v>
+        <v>18</v>
       </c>
       <c r="L85" t="n">
         <v>1.96</v>
       </c>
       <c r="M85" t="n">
-        <v>38.9</v>
+        <v>15.8</v>
       </c>
       <c r="N85" t="n">
-        <v>687.3000000000002</v>
+        <v>150.4</v>
       </c>
       <c r="O85" t="n">
-        <v>765.1000000000001</v>
+        <v>182</v>
       </c>
       <c r="P85" t="n">
-        <v>-23.2</v>
+        <v>-24.2</v>
       </c>
       <c r="Q85" t="n">
-        <v>38.9</v>
+        <v>15.8</v>
       </c>
       <c r="R85" t="n">
-        <v>-3.2</v>
+        <v>-14.6</v>
       </c>
       <c r="S85" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>726.2 (±38.9)</t>
+          <t>166.2 (±15.8)</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>-23.2 (±38.9)</t>
+          <t>-24.2 (±15.8)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>-3.2% (±4.9%)</t>
+          <t>-14.6% (±7.4%)</t>
         </is>
       </c>
       <c r="W85" t="n">
-        <v>1239016</v>
+        <v>288802</v>
       </c>
       <c r="X85" t="n">
-        <v>-1.9</v>
+        <v>-8.4</v>
       </c>
       <c r="Y85" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>-1.9(±3.2)</t>
+          <t>-8.4(±5.5)</t>
         </is>
       </c>
     </row>
@@ -8291,87 +8291,87 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>2801</v>
+        <v>2538</v>
       </c>
       <c r="E86" t="n">
-        <v>2948</v>
+        <v>2740</v>
       </c>
       <c r="F86" t="n">
-        <v>2703</v>
+        <v>2593</v>
       </c>
       <c r="G86" t="n">
-        <v>2662</v>
+        <v>2551</v>
       </c>
       <c r="H86" t="n">
-        <v>2579</v>
+        <v>2415</v>
       </c>
       <c r="I86" t="n">
-        <v>2495</v>
+        <v>2316</v>
       </c>
       <c r="J86" t="n">
-        <v>2751.8</v>
+        <v>2575</v>
       </c>
       <c r="K86" t="n">
-        <v>153</v>
+        <v>146.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.96</v>
       </c>
       <c r="M86" t="n">
-        <v>134.1</v>
+        <v>128.4</v>
       </c>
       <c r="N86" t="n">
-        <v>2617.7</v>
+        <v>2446.6</v>
       </c>
       <c r="O86" t="n">
-        <v>2885.9</v>
+        <v>2703.400000000001</v>
       </c>
       <c r="P86" t="n">
-        <v>49.2</v>
+        <v>-37</v>
       </c>
       <c r="Q86" t="n">
-        <v>134.1</v>
+        <v>128.4</v>
       </c>
       <c r="R86" t="n">
-        <v>1.8</v>
+        <v>-1.4</v>
       </c>
       <c r="S86" t="n">
         <v>4.7</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>2751.8 (±134.1)</t>
+          <t>2575.0 (±128.4)</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>49.2 (±134.1)</t>
+          <t>-37.0 (±128.4)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>1.8% (±4.7%)</t>
+          <t>-1.4% (±4.7%)</t>
         </is>
       </c>
       <c r="W86" t="n">
-        <v>2694828</v>
+        <v>6103321</v>
       </c>
       <c r="X86" t="n">
-        <v>1.8</v>
+        <v>-0.6</v>
       </c>
       <c r="Y86" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>1.8(±5.0)</t>
+          <t>-0.6(±2.1)</t>
         </is>
       </c>
     </row>
@@ -8383,87 +8383,87 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>2020</v>
       </c>
       <c r="D87" t="n">
-        <v>691</v>
+        <v>531</v>
       </c>
       <c r="E87" t="n">
-        <v>731</v>
+        <v>558</v>
       </c>
       <c r="F87" t="n">
-        <v>693</v>
+        <v>548</v>
       </c>
       <c r="G87" t="n">
-        <v>651</v>
+        <v>538</v>
       </c>
       <c r="H87" t="n">
-        <v>647</v>
+        <v>567</v>
       </c>
       <c r="I87" t="n">
-        <v>679</v>
+        <v>501</v>
       </c>
       <c r="J87" t="n">
-        <v>695.4</v>
+        <v>553.6</v>
       </c>
       <c r="K87" t="n">
-        <v>30.7</v>
+        <v>22.9</v>
       </c>
       <c r="L87" t="n">
         <v>1.96</v>
       </c>
       <c r="M87" t="n">
-        <v>26.9</v>
+        <v>20.1</v>
       </c>
       <c r="N87" t="n">
-        <v>668.5</v>
+        <v>533.5</v>
       </c>
       <c r="O87" t="n">
-        <v>722.3</v>
+        <v>573.7</v>
       </c>
       <c r="P87" t="n">
-        <v>-4.4</v>
+        <v>-22.6</v>
       </c>
       <c r="Q87" t="n">
-        <v>26.9</v>
+        <v>20.1</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.6</v>
+        <v>-4.1</v>
       </c>
       <c r="S87" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>695.4 (±26.9)</t>
+          <t>553.6 (±20.1)</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>-4.4 (±26.9)</t>
+          <t>-22.6 (±20.1)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>-0.6% (±3.7%)</t>
+          <t>-4.1% (±3.3%)</t>
         </is>
       </c>
       <c r="W87" t="n">
-        <v>847471</v>
+        <v>1366489</v>
       </c>
       <c r="X87" t="n">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="Y87" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>-0.5(±3.2)</t>
+          <t>-1.7(±1.5)</t>
         </is>
       </c>
     </row>
@@ -8475,361 +8475,85 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>142</v>
+        <v>447</v>
       </c>
       <c r="E88" t="n">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="F88" t="n">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="G88" t="n">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="H88" t="n">
-        <v>146</v>
+        <v>379</v>
       </c>
       <c r="I88" t="n">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="J88" t="n">
-        <v>166.2</v>
+        <v>418.6000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L88" t="n">
         <v>1.96</v>
       </c>
       <c r="M88" t="n">
-        <v>15.8</v>
+        <v>20.2</v>
       </c>
       <c r="N88" t="n">
-        <v>150.4</v>
+        <v>398.4000000000001</v>
       </c>
       <c r="O88" t="n">
-        <v>182</v>
+        <v>438.8000000000001</v>
       </c>
       <c r="P88" t="n">
-        <v>-24.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>15.8</v>
+        <v>20.2</v>
       </c>
       <c r="R88" t="n">
-        <v>-14.6</v>
+        <v>6.8</v>
       </c>
       <c r="S88" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>166.2 (±15.8)</t>
+          <t>418.6 (±20.2)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-24.2 (±15.8)</t>
+          <t>28.4 (±20.2)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>-14.6% (±7.4%)</t>
+          <t>6.8% (±4.9%)</t>
         </is>
       </c>
       <c r="W88" t="n">
-        <v>288802</v>
+        <v>1229176</v>
       </c>
       <c r="X88" t="n">
-        <v>-8.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y88" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z88" t="inlineStr">
-        <is>
-          <t>-8.4(±5.5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2538</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2740</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2593</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2551</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2415</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2316</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2575</v>
-      </c>
-      <c r="K89" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M89" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2446.6</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2703.400000000001</v>
-      </c>
-      <c r="P89" t="n">
-        <v>-37</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="R89" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="S89" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>2575.0 (±128.4)</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>-37.0 (±128.4)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>-1.4% (±4.7%)</t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>6103321</v>
-      </c>
-      <c r="X89" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>-0.6(±2.1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D90" t="n">
-        <v>531</v>
-      </c>
-      <c r="E90" t="n">
-        <v>558</v>
-      </c>
-      <c r="F90" t="n">
-        <v>548</v>
-      </c>
-      <c r="G90" t="n">
-        <v>538</v>
-      </c>
-      <c r="H90" t="n">
-        <v>567</v>
-      </c>
-      <c r="I90" t="n">
-        <v>501</v>
-      </c>
-      <c r="J90" t="n">
-        <v>553.6</v>
-      </c>
-      <c r="K90" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M90" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>533.5</v>
-      </c>
-      <c r="O90" t="n">
-        <v>573.7</v>
-      </c>
-      <c r="P90" t="n">
-        <v>-22.6</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="R90" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="S90" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>553.6 (±20.1)</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>-22.6 (±20.1)</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>-4.1% (±3.3%)</t>
-        </is>
-      </c>
-      <c r="W90" t="n">
-        <v>1366489</v>
-      </c>
-      <c r="X90" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>-1.7(±1.5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D91" t="n">
-        <v>447</v>
-      </c>
-      <c r="E91" t="n">
-        <v>428</v>
-      </c>
-      <c r="F91" t="n">
-        <v>399</v>
-      </c>
-      <c r="G91" t="n">
-        <v>445</v>
-      </c>
-      <c r="H91" t="n">
-        <v>379</v>
-      </c>
-      <c r="I91" t="n">
-        <v>406</v>
-      </c>
-      <c r="J91" t="n">
-        <v>418.6000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>23</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M91" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>398.4000000000001</v>
-      </c>
-      <c r="O91" t="n">
-        <v>438.8000000000001</v>
-      </c>
-      <c r="P91" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="R91" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="S91" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>418.6 (±20.2)</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>28.4 (±20.2)</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>6.8% (±4.9%)</t>
-        </is>
-      </c>
-      <c r="W91" t="n">
-        <v>1229176</v>
-      </c>
-      <c r="X91" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z91" t="inlineStr">
         <is>
           <t>2.3(±1.7)</t>
         </is>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
         <v>110</v>
@@ -882,16 +882,16 @@
         <v>104</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" t="n">
         <v>5.6</v>
       </c>
       <c r="R5" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -900,26 +900,26 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.6 (±5.6)</t>
+          <t>0.6 (±5.6)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.6% (±5.5%)</t>
+          <t>0.6% (±5.4%)</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>260574</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1.0(±2.1)</t>
+          <t>0.2(±2.2)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E15" t="n">
         <v>1070</v>
@@ -1802,13 +1802,13 @@
         <v>1088.9</v>
       </c>
       <c r="P15" t="n">
-        <v>-142.6</v>
+        <v>-141.6</v>
       </c>
       <c r="Q15" t="n">
         <v>57.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-13.8</v>
+        <v>-13.7</v>
       </c>
       <c r="S15" t="n">
         <v>4.6</v>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-142.6 (±57.3)</t>
+          <t>-141.6 (±57.3)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-13.8% (±4.6%)</t>
+          <t>-13.7% (±4.6%)</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -1950,7 +1950,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E17" t="n">
         <v>172</v>
@@ -1986,16 +1986,16 @@
         <v>162.3</v>
       </c>
       <c r="P17" t="n">
-        <v>-26</v>
+        <v>-19</v>
       </c>
       <c r="Q17" t="n">
         <v>15.3</v>
       </c>
       <c r="R17" t="n">
-        <v>-17.7</v>
+        <v>-12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2004,26 +2004,26 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-26.0 (±15.3)</t>
+          <t>-19.0 (±15.3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-17.7% (±7.7%)</t>
+          <t>-12.9% (±8.2%)</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>170267</v>
       </c>
       <c r="X17" t="n">
-        <v>-15.3</v>
+        <v>-11.2</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-15.3(±9.0)</t>
+          <t>-11.2(±9.0)</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E33" t="n">
         <v>740</v>
@@ -3458,13 +3458,13 @@
         <v>765</v>
       </c>
       <c r="P33" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q33" t="n">
         <v>33</v>
       </c>
       <c r="R33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S33" t="n">
         <v>4.7</v>
@@ -3476,26 +3476,26 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>60.0 (±33.0)</t>
+          <t>62.0 (±33.0)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>8.2% (±4.7%)</t>
+          <t>8.5% (±4.7%)</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>493641</v>
       </c>
       <c r="X33" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="Y33" t="n">
         <v>6.6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12.2(±6.6)</t>
+          <t>12.6(±6.6)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E34" t="n">
         <v>281</v>
@@ -3550,16 +3550,16 @@
         <v>268.1</v>
       </c>
       <c r="P34" t="n">
-        <v>-13.8</v>
+        <v>-12.8</v>
       </c>
       <c r="Q34" t="n">
         <v>12.3</v>
       </c>
       <c r="R34" t="n">
-        <v>-5.4</v>
+        <v>-5</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3568,26 +3568,26 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-13.8 (±12.3)</t>
+          <t>-12.8 (±12.3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-5.4% (±4.3%)</t>
+          <t>-5.0% (±4.4%)</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>275641</v>
       </c>
       <c r="X34" t="n">
-        <v>-5</v>
+        <v>-4.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-5.0(±4.5)</t>
+          <t>-4.6(±4.4)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="E40" t="n">
         <v>3508</v>
@@ -4102,13 +4102,13 @@
         <v>3515.200000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>-37.2</v>
+        <v>-34.2</v>
       </c>
       <c r="Q40" t="n">
         <v>65</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="S40" t="n">
         <v>1.8</v>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-37.2 (±65.0)</t>
+          <t>-34.2 (±65.0)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-1.1% (±1.8%)</t>
+          <t>-1.0% (±1.8%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>4048789</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="Y40" t="n">
         <v>1.6</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-0.9(±1.6)</t>
+          <t>-0.8(±1.6)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E44" t="n">
         <v>2128</v>
@@ -4470,7 +4470,7 @@
         <v>2064.5</v>
       </c>
       <c r="P44" t="n">
-        <v>-174.8</v>
+        <v>-175.8</v>
       </c>
       <c r="Q44" t="n">
         <v>119.7</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-174.8 (±119.7)</t>
+          <t>-175.8 (±119.7)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -4618,7 +4618,7 @@
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="E46" t="n">
         <v>558</v>
@@ -4654,16 +4654,16 @@
         <v>530</v>
       </c>
       <c r="P46" t="n">
-        <v>-77.2</v>
+        <v>-44.2</v>
       </c>
       <c r="Q46" t="n">
         <v>49.8</v>
       </c>
       <c r="R46" t="n">
-        <v>-16.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="S46" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4672,26 +4672,26 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-77.2 (±49.8)</t>
+          <t>-44.2 (±49.8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-16.1% (±7.9%)</t>
+          <t>-9.2% (±8.5%)</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>188972</v>
       </c>
       <c r="X46" t="n">
-        <v>-40.9</v>
+        <v>-23.4</v>
       </c>
       <c r="Y46" t="n">
         <v>26.4</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>-40.9(±26.4)</t>
+          <t>-23.4(±26.4)</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" t="n">
         <v>24</v>
@@ -4746,16 +4746,16 @@
         <v>26.40000000000001</v>
       </c>
       <c r="P47" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
         <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="S47" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4764,26 +4764,26 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0.4 (±1.8)</t>
+          <t>1.4 (±1.8)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>1.6% (±6.9%)</t>
+          <t>5.7% (±7.2%)</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>49672</v>
       </c>
       <c r="X47" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="Y47" t="n">
         <v>3.6</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>0.8(±3.6)</t>
+          <t>2.8(±3.6)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E53" t="n">
         <v>534</v>
@@ -5298,16 +5298,16 @@
         <v>510.8000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>-14.2</v>
+        <v>-12.2</v>
       </c>
       <c r="Q53" t="n">
         <v>36.6</v>
       </c>
       <c r="R53" t="n">
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
       <c r="S53" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5316,26 +5316,26 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-14.2 (±36.6)</t>
+          <t>-12.2 (±36.6)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-3.0% (±6.9%)</t>
+          <t>-2.6% (±7.0%)</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>601737</v>
       </c>
       <c r="X53" t="n">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
       <c r="Y53" t="n">
         <v>6.1</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-2.4(±6.1)</t>
+          <t>-2.0(±6.1)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E62" t="n">
         <v>1068</v>
@@ -6126,13 +6126,13 @@
         <v>1083.400000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q62" t="n">
         <v>38.4</v>
       </c>
       <c r="R62" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="S62" t="n">
         <v>3.8</v>
@@ -6144,26 +6144,26 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>56.0 (±38.4)</t>
+          <t>58.0 (±38.4)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>5.4% (±3.8%)</t>
+          <t>5.6% (±3.8%)</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>956388</v>
       </c>
       <c r="X62" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y62" t="n">
         <v>4</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>5.9(±4.0)</t>
+          <t>6.1(±4.0)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E63" t="n">
         <v>391</v>
@@ -6218,13 +6218,13 @@
         <v>371.8999999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>-11.2</v>
+        <v>-12.2</v>
       </c>
       <c r="Q63" t="n">
         <v>17.7</v>
       </c>
       <c r="R63" t="n">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="S63" t="n">
         <v>4.6</v>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>-11.2 (±17.7)</t>
+          <t>-12.2 (±17.7)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>-3.2% (±4.6%)</t>
+          <t>-3.4% (±4.6%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>536215</v>
       </c>
       <c r="X63" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="Y63" t="n">
         <v>3.3</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>-2.1(±3.3)</t>
+          <t>-2.3(±3.3)</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>4967</v>
+        <v>4970</v>
       </c>
       <c r="E69" t="n">
         <v>5047</v>
@@ -6770,13 +6770,13 @@
         <v>5077.600000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="Q69" t="n">
         <v>70.59999999999999</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="S69" t="n">
         <v>1.4</v>
@@ -6788,26 +6788,26 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>-40.0 (±70.6)</t>
+          <t>-37.0 (±70.6)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>-0.8% (±1.4%)</t>
+          <t>-0.7% (±1.4%)</t>
         </is>
       </c>
       <c r="W69" t="n">
         <v>8329503</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>-0.5(±0.9)</t>
+          <t>-0.4(±0.8)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="E75" t="n">
         <v>730</v>
@@ -7322,16 +7322,16 @@
         <v>690.9000000000002</v>
       </c>
       <c r="P75" t="n">
-        <v>-103.2</v>
+        <v>-63.2</v>
       </c>
       <c r="Q75" t="n">
         <v>63.7</v>
       </c>
       <c r="R75" t="n">
-        <v>-16.5</v>
+        <v>-10.1</v>
       </c>
       <c r="S75" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>-103.2 (±63.7)</t>
+          <t>-63.2 (±63.7)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>-16.5% (±7.7%)</t>
+          <t>-10.1% (±8.3%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>359239</v>
       </c>
       <c r="X75" t="n">
-        <v>-28.7</v>
+        <v>-17.6</v>
       </c>
       <c r="Y75" t="n">
         <v>17.7</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>-28.7(±17.7)</t>
+          <t>-17.6(±17.7)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E76" t="n">
         <v>34</v>
@@ -7414,16 +7414,16 @@
         <v>38.1</v>
       </c>
       <c r="P76" t="n">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="Q76" t="n">
         <v>1.9</v>
       </c>
       <c r="R76" t="n">
-        <v>-3.3</v>
+        <v>-0.6</v>
       </c>
       <c r="S76" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>-1.2 (±1.9)</t>
+          <t>-0.2 (±1.9)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>-3.3% (±4.8%)</t>
+          <t>-0.6% (±4.9%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>98584</v>
       </c>
       <c r="X76" t="n">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="Y76" t="n">
         <v>1.9</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>-1.2(±1.9)</t>
+          <t>-0.2(±1.9)</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E82" t="n">
         <v>780</v>
@@ -7966,16 +7966,16 @@
         <v>765.1000000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>-23.2</v>
+        <v>-21.2</v>
       </c>
       <c r="Q82" t="n">
         <v>38.9</v>
       </c>
       <c r="R82" t="n">
-        <v>-3.2</v>
+        <v>-2.9</v>
       </c>
       <c r="S82" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>-23.2 (±38.9)</t>
+          <t>-21.2 (±38.9)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-3.2% (±4.9%)</t>
+          <t>-2.9% (±5.0%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>1239016</v>
       </c>
       <c r="X82" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="Y82" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>-1.9(±3.2)</t>
+          <t>-1.7(±3.1)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(30-34) - (35-39)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -4342,7 +4342,7 @@
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E43" t="n">
         <v>18</v>
@@ -4378,16 +4378,16 @@
         <v>29.2</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="Q43" t="n">
         <v>4.4</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="S43" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4396,26 +4396,26 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.2 (±4.4)</t>
+          <t>1.2 (±4.4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.8% (±15.2%)</t>
+          <t>4.8% (±15.8%)</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>28808</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>0.7(±15.3)</t>
+          <t>4.2(±15.2)</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" t="n">
         <v>22</v>
@@ -7046,16 +7046,16 @@
         <v>38.3</v>
       </c>
       <c r="P72" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="Q72" t="n">
         <v>5.7</v>
       </c>
       <c r="R72" t="n">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="S72" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -7064,26 +7064,26 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>3.4 (±5.7)</t>
+          <t>4.4 (±5.7)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>10.4% (±16.4%)</t>
+          <t>13.5% (±16.9%)</t>
         </is>
       </c>
       <c r="W72" t="n">
         <v>53461</v>
       </c>
       <c r="X72" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>6.4(±10.6)</t>
+          <t>8.2(±10.7)</t>
         </is>
       </c>
     </row>
